--- a/hashmap.xlsx
+++ b/hashmap.xlsx
@@ -33045,7 +33045,7 @@
     </row>
     <row r="3262">
       <c r="A3262" t="n">
-        <v>5.033409715565949e+17</v>
+        <v>5.03340971556594e+17</v>
       </c>
       <c r="B3262" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
     </row>
     <row r="3263">
       <c r="A3263" t="n">
-        <v>5.041526496450642e+17</v>
+        <v>5.04152649645064e+17</v>
       </c>
       <c r="B3263" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
     </row>
     <row r="3264">
       <c r="A3264" t="n">
-        <v>5.413213592714151e+17</v>
+        <v>5.41321359271415e+17</v>
       </c>
       <c r="B3264" t="inlineStr">
         <is>
@@ -33075,7 +33075,7 @@
     </row>
     <row r="3265">
       <c r="A3265" t="n">
-        <v>5.442590608892038e+17</v>
+        <v>5.44259060889203e+17</v>
       </c>
       <c r="B3265" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
     </row>
     <row r="3266">
       <c r="A3266" t="n">
-        <v>5.474015507949558e+17</v>
+        <v>5.47401550794955e+17</v>
       </c>
       <c r="B3266" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
     </row>
     <row r="3268">
       <c r="A3268" t="n">
-        <v>5.484099397839142e+17</v>
+        <v>5.48409939783914e+17</v>
       </c>
       <c r="B3268" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
     </row>
     <row r="3269">
       <c r="A3269" t="n">
-        <v>5.606983804710007e+17</v>
+        <v>5.60698380471e+17</v>
       </c>
       <c r="B3269" t="inlineStr">
         <is>
@@ -33125,7 +33125,7 @@
     </row>
     <row r="3270">
       <c r="A3270" t="n">
-        <v>5.607984408276765e+17</v>
+        <v>5.60798440827676e+17</v>
       </c>
       <c r="B3270" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
     </row>
     <row r="3271">
       <c r="A3271" t="n">
-        <v>5.616477568974301e+17</v>
+        <v>5.6164775689743e+17</v>
       </c>
       <c r="B3271" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
     </row>
     <row r="3273">
       <c r="A3273" t="n">
-        <v>5.672827962488006e+17</v>
+        <v>5.672827962488e+17</v>
       </c>
       <c r="B3273" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
     </row>
     <row r="3274">
       <c r="A3274" t="n">
-        <v>5.715922117953277e+17</v>
+        <v>5.71592211795327e+17</v>
       </c>
       <c r="B3274" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
     </row>
     <row r="3275">
       <c r="A3275" t="n">
-        <v>5.722124970105944e+17</v>
+        <v>5.72212497010594e+17</v>
       </c>
       <c r="B3275" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
     </row>
     <row r="3276">
       <c r="A3276" t="n">
-        <v>5.773739653212484e+17</v>
+        <v>5.77373965321248e+17</v>
       </c>
       <c r="B3276" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
     </row>
     <row r="3277">
       <c r="A3277" t="n">
-        <v>5.796442934448247e+17</v>
+        <v>5.796442934448241e+17</v>
       </c>
       <c r="B3277" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
     </row>
     <row r="3278">
       <c r="A3278" t="n">
-        <v>5.839814465556159e+17</v>
+        <v>5.83981446555615e+17</v>
       </c>
       <c r="B3278" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
     </row>
     <row r="3279">
       <c r="A3279" t="n">
-        <v>5.844602851234418e+17</v>
+        <v>5.84460285123441e+17</v>
       </c>
       <c r="B3279" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
     </row>
     <row r="3280">
       <c r="A3280" t="n">
-        <v>5.844898657739002e+17</v>
+        <v>5.844898657739e+17</v>
       </c>
       <c r="B3280" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
     </row>
     <row r="3281">
       <c r="A3281" t="n">
-        <v>5.851294045290765e+17</v>
+        <v>5.85129404529076e+17</v>
       </c>
       <c r="B3281" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
     </row>
     <row r="3282">
       <c r="A3282" t="n">
-        <v>5.860860564270042e+17</v>
+        <v>5.86086056427004e+17</v>
       </c>
       <c r="B3282" t="inlineStr">
         <is>
@@ -33255,7 +33255,7 @@
     </row>
     <row r="3283">
       <c r="A3283" t="n">
-        <v>5.862405832767768e+17</v>
+        <v>5.862405832767759e+17</v>
       </c>
       <c r="B3283" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
     </row>
     <row r="3284">
       <c r="A3284" t="n">
-        <v>5.880749530817907e+17</v>
+        <v>5.8807495308179e+17</v>
       </c>
       <c r="B3284" t="inlineStr">
         <is>
@@ -33295,7 +33295,7 @@
     </row>
     <row r="3287">
       <c r="A3287" t="n">
-        <v>6.004208745498803e+17</v>
+        <v>6.004208745498801e+17</v>
       </c>
       <c r="B3287" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
     </row>
     <row r="3288">
       <c r="A3288" t="n">
-        <v>6.004520640656407e+17</v>
+        <v>6.004520640656399e+17</v>
       </c>
       <c r="B3288" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
     </row>
     <row r="3289">
       <c r="A3289" t="n">
-        <v>6.042620065616532e+17</v>
+        <v>6.04262006561653e+17</v>
       </c>
       <c r="B3289" t="inlineStr">
         <is>
@@ -33325,7 +33325,7 @@
     </row>
     <row r="3290">
       <c r="A3290" t="n">
-        <v>6.114150559954295e+17</v>
+        <v>6.11415055995429e+17</v>
       </c>
       <c r="B3290" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
     </row>
     <row r="3292">
       <c r="A3292" t="n">
-        <v>6.185896303895921e+17</v>
+        <v>6.18589630389591e+17</v>
       </c>
       <c r="B3292" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
     </row>
     <row r="3293">
       <c r="A3293" t="n">
-        <v>6.192629801357263e+17</v>
+        <v>6.19262980135726e+17</v>
       </c>
       <c r="B3293" t="inlineStr">
         <is>
@@ -33365,7 +33365,7 @@
     </row>
     <row r="3294">
       <c r="A3294" t="n">
-        <v>6.193109930627232e+17</v>
+        <v>6.193109930627229e+17</v>
       </c>
       <c r="B3294" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
     </row>
     <row r="3295">
       <c r="A3295" t="n">
-        <v>6.198929747970191e+17</v>
+        <v>6.19892974797019e+17</v>
       </c>
       <c r="B3295" t="inlineStr">
         <is>
@@ -33385,7 +33385,7 @@
     </row>
     <row r="3296">
       <c r="A3296" t="n">
-        <v>6.207154532159598e+17</v>
+        <v>6.20715453215959e+17</v>
       </c>
       <c r="B3296" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
     </row>
     <row r="3297">
       <c r="A3297" t="n">
-        <v>6.22883760429513e+17</v>
+        <v>6.228837604295119e+17</v>
       </c>
       <c r="B3297" t="inlineStr">
         <is>
@@ -33415,7 +33415,7 @@
     </row>
     <row r="3299">
       <c r="A3299" t="n">
-        <v>6.237440219446286e+17</v>
+        <v>6.23744021944628e+17</v>
       </c>
       <c r="B3299" t="inlineStr">
         <is>
@@ -33425,7 +33425,7 @@
     </row>
     <row r="3300">
       <c r="A3300" t="n">
-        <v>6.242967164219465e+17</v>
+        <v>6.24296716421946e+17</v>
       </c>
       <c r="B3300" t="inlineStr">
         <is>
@@ -33435,7 +33435,7 @@
     </row>
     <row r="3301">
       <c r="A3301" t="n">
-        <v>6.280146656504247e+17</v>
+        <v>6.280146656504241e+17</v>
       </c>
       <c r="B3301" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
     </row>
     <row r="3302">
       <c r="A3302" t="n">
-        <v>6.335734383628692e+17</v>
+        <v>6.33573438362869e+17</v>
       </c>
       <c r="B3302" t="inlineStr">
         <is>
@@ -33455,7 +33455,7 @@
     </row>
     <row r="3303">
       <c r="A3303" t="n">
-        <v>6.346995493769979e+17</v>
+        <v>6.34699549376997e+17</v>
       </c>
       <c r="B3303" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
     </row>
     <row r="3305">
       <c r="A3305" t="n">
-        <v>6.375172634986092e+17</v>
+        <v>6.37517263498609e+17</v>
       </c>
       <c r="B3305" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
     </row>
     <row r="3306">
       <c r="A3306" t="n">
-        <v>6.376350804107296e+17</v>
+        <v>6.37635080410729e+17</v>
       </c>
       <c r="B3306" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
     </row>
     <row r="3307">
       <c r="A3307" t="n">
-        <v>6.431136711952116e+17</v>
+        <v>6.43113671195211e+17</v>
       </c>
       <c r="B3307" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
     </row>
     <row r="3308">
       <c r="A3308" t="n">
-        <v>6.431304036316893e+17</v>
+        <v>6.43130403631689e+17</v>
       </c>
       <c r="B3308" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
     </row>
     <row r="3310">
       <c r="A3310" t="n">
-        <v>6.438601220563589e+17</v>
+        <v>6.43860122056358e+17</v>
       </c>
       <c r="B3310" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
     </row>
     <row r="3311">
       <c r="A3311" t="n">
-        <v>6.439022455229059e+17</v>
+        <v>6.43902245522905e+17</v>
       </c>
       <c r="B3311" t="inlineStr">
         <is>
@@ -33545,7 +33545,7 @@
     </row>
     <row r="3312">
       <c r="A3312" t="n">
-        <v>6.485388360944689e+17</v>
+        <v>6.48538836094468e+17</v>
       </c>
       <c r="B3312" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
     </row>
     <row r="3313">
       <c r="A3313" t="n">
-        <v>6.498645706674359e+17</v>
+        <v>6.49864570667435e+17</v>
       </c>
       <c r="B3313" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
     </row>
     <row r="3314">
       <c r="A3314" t="n">
-        <v>6.508071000715167e+17</v>
+        <v>6.50807100071516e+17</v>
       </c>
       <c r="B3314" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
     </row>
     <row r="3316">
       <c r="A3316" t="n">
-        <v>6.529035728668524e+17</v>
+        <v>6.52903572866852e+17</v>
       </c>
       <c r="B3316" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
     </row>
     <row r="3317">
       <c r="A3317" t="n">
-        <v>6.532680494477409e+17</v>
+        <v>6.532680494477411e+17</v>
       </c>
       <c r="B3317" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
     </row>
     <row r="3318">
       <c r="A3318" t="n">
-        <v>6.550252600201683e+17</v>
+        <v>6.550252600201679e+17</v>
       </c>
       <c r="B3318" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
     </row>
     <row r="3319">
       <c r="A3319" t="n">
-        <v>6.562493115993809e+17</v>
+        <v>6.5624931159938e+17</v>
       </c>
       <c r="B3319" t="inlineStr">
         <is>
@@ -33625,7 +33625,7 @@
     </row>
     <row r="3320">
       <c r="A3320" t="n">
-        <v>6.576903304385567e+17</v>
+        <v>6.57690330438556e+17</v>
       </c>
       <c r="B3320" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
     </row>
     <row r="3321">
       <c r="A3321" t="n">
-        <v>6.579739422958802e+17</v>
+        <v>6.579739422958799e+17</v>
       </c>
       <c r="B3321" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
     </row>
     <row r="3322">
       <c r="A3322" t="n">
-        <v>6.590688274218519e+17</v>
+        <v>6.59068827421851e+17</v>
       </c>
       <c r="B3322" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
     </row>
     <row r="3323">
       <c r="A3323" t="n">
-        <v>6.592008834649618e+17</v>
+        <v>6.59200883464961e+17</v>
       </c>
       <c r="B3323" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
     </row>
     <row r="3325">
       <c r="A3325" t="n">
-        <v>6.626935091275886e+17</v>
+        <v>6.62693509127588e+17</v>
       </c>
       <c r="B3325" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
     </row>
     <row r="3326">
       <c r="A3326" t="n">
-        <v>6.641270838889216e+17</v>
+        <v>6.64127083888921e+17</v>
       </c>
       <c r="B3326" t="inlineStr">
         <is>
@@ -33695,7 +33695,7 @@
     </row>
     <row r="3327">
       <c r="A3327" t="n">
-        <v>6.651905946461888e+17</v>
+        <v>6.65190594646188e+17</v>
       </c>
       <c r="B3327" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
     </row>
     <row r="3328">
       <c r="A3328" t="n">
-        <v>6.656014152245754e+17</v>
+        <v>6.65601415224575e+17</v>
       </c>
       <c r="B3328" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
     </row>
     <row r="3329">
       <c r="A3329" t="n">
-        <v>6.656027486268004e+17</v>
+        <v>6.656027486268e+17</v>
       </c>
       <c r="B3329" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
     </row>
     <row r="3330">
       <c r="A3330" t="n">
-        <v>6.65650150220388e+17</v>
+        <v>6.656501502203869e+17</v>
       </c>
       <c r="B3330" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
     </row>
     <row r="3331">
       <c r="A3331" t="n">
-        <v>6.662621047432901e+17</v>
+        <v>6.6626210474329e+17</v>
       </c>
       <c r="B3331" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
     </row>
     <row r="3332">
       <c r="A3332" t="n">
-        <v>6.664745160282332e+17</v>
+        <v>6.66474516028233e+17</v>
       </c>
       <c r="B3332" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
     </row>
     <row r="3333">
       <c r="A3333" t="n">
-        <v>6.678334330391274e+17</v>
+        <v>6.67833433039127e+17</v>
       </c>
       <c r="B3333" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
     </row>
     <row r="3334">
       <c r="A3334" t="n">
-        <v>6.687612240216835e+17</v>
+        <v>6.687612240216829e+17</v>
       </c>
       <c r="B3334" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
     </row>
     <row r="3335">
       <c r="A3335" t="n">
-        <v>6.695865973900836e+17</v>
+        <v>6.695865973900829e+17</v>
       </c>
       <c r="B3335" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
     </row>
     <row r="3337">
       <c r="A3337" t="n">
-        <v>6.7097980919537e+17</v>
+        <v>6.70979809195369e+17</v>
       </c>
       <c r="B3337" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
     </row>
     <row r="3338">
       <c r="A3338" t="n">
-        <v>6.713950250320082e+17</v>
+        <v>6.713950250320079e+17</v>
       </c>
       <c r="B3338" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
     </row>
     <row r="3339">
       <c r="A3339" t="n">
-        <v>6.731034697353535e+17</v>
+        <v>6.73103469735353e+17</v>
       </c>
       <c r="B3339" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
     </row>
     <row r="3340">
       <c r="A3340" t="n">
-        <v>6.738896160061624e+17</v>
+        <v>6.73889616006162e+17</v>
       </c>
       <c r="B3340" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
     </row>
     <row r="3341">
       <c r="A3341" t="n">
-        <v>6.750890639062341e+17</v>
+        <v>6.75089063906234e+17</v>
       </c>
       <c r="B3341" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
     </row>
     <row r="3342">
       <c r="A3342" t="n">
-        <v>6.761212011721142e+17</v>
+        <v>6.76121201172114e+17</v>
       </c>
       <c r="B3342" t="inlineStr">
         <is>
@@ -33855,7 +33855,7 @@
     </row>
     <row r="3343">
       <c r="A3343" t="n">
-        <v>6.778957090894424e+17</v>
+        <v>6.77895709089442e+17</v>
       </c>
       <c r="B3343" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
     </row>
     <row r="3344">
       <c r="A3344" t="n">
-        <v>6.801569788572969e+17</v>
+        <v>6.80156978857296e+17</v>
       </c>
       <c r="B3344" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
     </row>
     <row r="3345">
       <c r="A3345" t="n">
-        <v>6.802701428279771e+17</v>
+        <v>6.80270142827977e+17</v>
       </c>
       <c r="B3345" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
     </row>
     <row r="3346">
       <c r="A3346" t="n">
-        <v>6.808700259825121e+17</v>
+        <v>6.80870025982512e+17</v>
       </c>
       <c r="B3346" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
     </row>
     <row r="3347">
       <c r="A3347" t="n">
-        <v>6.819204070313444e+17</v>
+        <v>6.81920407031344e+17</v>
       </c>
       <c r="B3347" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
     </row>
     <row r="3348">
       <c r="A3348" t="n">
-        <v>6.882927146211679e+17</v>
+        <v>6.88292714621167e+17</v>
       </c>
       <c r="B3348" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
     </row>
     <row r="3349">
       <c r="A3349" t="n">
-        <v>6.884595924145649e+17</v>
+        <v>6.88459592414564e+17</v>
       </c>
       <c r="B3349" t="inlineStr">
         <is>
@@ -33925,7 +33925,7 @@
     </row>
     <row r="3350">
       <c r="A3350" t="n">
-        <v>6.896596414846676e+17</v>
+        <v>6.89659641484667e+17</v>
       </c>
       <c r="B3350" t="inlineStr">
         <is>
@@ -33935,7 +33935,7 @@
     </row>
     <row r="3351">
       <c r="A3351" t="n">
-        <v>6.911089782777777e+17</v>
+        <v>6.91108978277777e+17</v>
       </c>
       <c r="B3351" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
     </row>
     <row r="3352">
       <c r="A3352" t="n">
-        <v>6.911091875360914e+17</v>
+        <v>6.91109187536091e+17</v>
       </c>
       <c r="B3352" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
     </row>
     <row r="3354">
       <c r="A3354" t="n">
-        <v>6.945901750513495e+17</v>
+        <v>6.94590175051349e+17</v>
       </c>
       <c r="B3354" t="inlineStr">
         <is>
@@ -33975,7 +33975,7 @@
     </row>
     <row r="3355">
       <c r="A3355" t="n">
-        <v>6.948916035873637e+17</v>
+        <v>6.948916035873629e+17</v>
       </c>
       <c r="B3355" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
     </row>
     <row r="3356">
       <c r="A3356" t="n">
-        <v>6.953209277167954e+17</v>
+        <v>6.95320927716795e+17</v>
       </c>
       <c r="B3356" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
     </row>
     <row r="3357">
       <c r="A3357" t="n">
-        <v>6.959708992234459e+17</v>
+        <v>6.95970899223445e+17</v>
       </c>
       <c r="B3357" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
     </row>
     <row r="3358">
       <c r="A3358" t="n">
-        <v>6.968040551691112e+17</v>
+        <v>6.96804055169111e+17</v>
       </c>
       <c r="B3358" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
     </row>
     <row r="3359">
       <c r="A3359" t="n">
-        <v>6.969557357130495e+17</v>
+        <v>6.96955735713049e+17</v>
       </c>
       <c r="B3359" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
     </row>
     <row r="3360">
       <c r="A3360" t="n">
-        <v>6.970013732225042e+17</v>
+        <v>6.970013732225039e+17</v>
       </c>
       <c r="B3360" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
     </row>
     <row r="3361">
       <c r="A3361" t="n">
-        <v>6.978575668106417e+17</v>
+        <v>6.97857566810641e+17</v>
       </c>
       <c r="B3361" t="inlineStr">
         <is>
@@ -34045,7 +34045,7 @@
     </row>
     <row r="3362">
       <c r="A3362" t="n">
-        <v>6.998387697862449e+17</v>
+        <v>6.99838769786244e+17</v>
       </c>
       <c r="B3362" t="inlineStr">
         <is>
@@ -34055,7 +34055,7 @@
     </row>
     <row r="3363">
       <c r="A3363" t="n">
-        <v>7.004539963144364e+17</v>
+        <v>7.00453996314436e+17</v>
       </c>
       <c r="B3363" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
     </row>
     <row r="3365">
       <c r="A3365" t="n">
-        <v>7.041315388691686e+17</v>
+        <v>7.04131538869168e+17</v>
       </c>
       <c r="B3365" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
     </row>
     <row r="3366">
       <c r="A3366" t="n">
-        <v>7.048750817068937e+17</v>
+        <v>7.048750817068931e+17</v>
       </c>
       <c r="B3366" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
     </row>
     <row r="3367">
       <c r="A3367" t="n">
-        <v>7.049602761366666e+17</v>
+        <v>7.04960276136666e+17</v>
       </c>
       <c r="B3367" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
     </row>
     <row r="3368">
       <c r="A3368" t="n">
-        <v>7.055088033270168e+17</v>
+        <v>7.055088033270159e+17</v>
       </c>
       <c r="B3368" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
     </row>
     <row r="3369">
       <c r="A3369" t="n">
-        <v>7.057485454279324e+17</v>
+        <v>7.05748545427932e+17</v>
       </c>
       <c r="B3369" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
     </row>
     <row r="3370">
       <c r="A3370" t="n">
-        <v>7.063464715976796e+17</v>
+        <v>7.06346471597679e+17</v>
       </c>
       <c r="B3370" t="inlineStr">
         <is>
@@ -34135,7 +34135,7 @@
     </row>
     <row r="3371">
       <c r="A3371" t="n">
-        <v>7.070432917685084e+17</v>
+        <v>7.07043291768508e+17</v>
       </c>
       <c r="B3371" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
     </row>
     <row r="3372">
       <c r="A3372" t="n">
-        <v>7.071157630125371e+17</v>
+        <v>7.07115763012537e+17</v>
       </c>
       <c r="B3372" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
     </row>
     <row r="3373">
       <c r="A3373" t="n">
-        <v>7.071234910852657e+17</v>
+        <v>7.07123491085265e+17</v>
       </c>
       <c r="B3373" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
     </row>
     <row r="3374">
       <c r="A3374" t="n">
-        <v>7.076222508043885e+17</v>
+        <v>7.07622250804388e+17</v>
       </c>
       <c r="B3374" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
     </row>
     <row r="3375">
       <c r="A3375" t="n">
-        <v>7.105420318548472e+17</v>
+        <v>7.10542031854847e+17</v>
       </c>
       <c r="B3375" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
     </row>
     <row r="3376">
       <c r="A3376" t="n">
-        <v>7.10658297845513e+17</v>
+        <v>7.106582978455119e+17</v>
       </c>
       <c r="B3376" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
     </row>
     <row r="3377">
       <c r="A3377" t="n">
-        <v>7.107290781341367e+17</v>
+        <v>7.107290781341361e+17</v>
       </c>
       <c r="B3377" t="inlineStr">
         <is>
@@ -34205,7 +34205,7 @@
     </row>
     <row r="3378">
       <c r="A3378" t="n">
-        <v>7.126809305600788e+17</v>
+        <v>7.12680930560078e+17</v>
       </c>
       <c r="B3378" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
     </row>
     <row r="3379">
       <c r="A3379" t="n">
-        <v>7.134049876145364e+17</v>
+        <v>7.134049876145359e+17</v>
       </c>
       <c r="B3379" t="inlineStr">
         <is>
@@ -34225,7 +34225,7 @@
     </row>
     <row r="3380">
       <c r="A3380" t="n">
-        <v>7.150632561153006e+17</v>
+        <v>7.150632561153e+17</v>
       </c>
       <c r="B3380" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
     </row>
     <row r="3381">
       <c r="A3381" t="n">
-        <v>7.170999449668152e+17</v>
+        <v>7.17099944966815e+17</v>
       </c>
       <c r="B3381" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
     </row>
     <row r="3384">
       <c r="A3384" t="n">
-        <v>7.203481211798834e+17</v>
+        <v>7.20348121179883e+17</v>
       </c>
       <c r="B3384" t="inlineStr">
         <is>
@@ -34275,7 +34275,7 @@
     </row>
     <row r="3385">
       <c r="A3385" t="n">
-        <v>7.213064094464513e+17</v>
+        <v>7.213064094464509e+17</v>
       </c>
       <c r="B3385" t="inlineStr">
         <is>
@@ -34285,7 +34285,7 @@
     </row>
     <row r="3386">
       <c r="A3386" t="n">
-        <v>7.214562144468014e+17</v>
+        <v>7.21456214446801e+17</v>
       </c>
       <c r="B3386" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
     </row>
     <row r="3389">
       <c r="A3389" t="n">
-        <v>7.326222591903457e+17</v>
+        <v>7.32622259190345e+17</v>
       </c>
       <c r="B3389" t="inlineStr">
         <is>
@@ -34325,7 +34325,7 @@
     </row>
     <row r="3390">
       <c r="A3390" t="n">
-        <v>7.347209570940964e+17</v>
+        <v>7.34720957094096e+17</v>
       </c>
       <c r="B3390" t="inlineStr">
         <is>
@@ -34335,7 +34335,7 @@
     </row>
     <row r="3391">
       <c r="A3391" t="n">
-        <v>7.373719190159987e+17</v>
+        <v>7.37371919015998e+17</v>
       </c>
       <c r="B3391" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
     </row>
     <row r="3392">
       <c r="A3392" t="n">
-        <v>7.384562836975206e+17</v>
+        <v>7.3845628369752e+17</v>
       </c>
       <c r="B3392" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
     </row>
     <row r="3394">
       <c r="A3394" t="n">
-        <v>7.440461375847644e+17</v>
+        <v>7.44046137584764e+17</v>
       </c>
       <c r="B3394" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
     </row>
     <row r="3395">
       <c r="A3395" t="n">
-        <v>7.447272013631107e+17</v>
+        <v>7.4472720136311e+17</v>
       </c>
       <c r="B3395" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
     </row>
     <row r="3396">
       <c r="A3396" t="n">
-        <v>7.448306975727922e+17</v>
+        <v>7.448306975727921e+17</v>
       </c>
       <c r="B3396" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
     </row>
     <row r="3397">
       <c r="A3397" t="n">
-        <v>7.453223987743834e+17</v>
+        <v>7.45322398774383e+17</v>
       </c>
       <c r="B3397" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
     </row>
     <row r="3398">
       <c r="A3398" t="n">
-        <v>7.477374262849554e+17</v>
+        <v>7.47737426284955e+17</v>
       </c>
       <c r="B3398" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
     </row>
     <row r="3399">
       <c r="A3399" t="n">
-        <v>7.477474700599375e+17</v>
+        <v>7.47747470059937e+17</v>
       </c>
       <c r="B3399" t="inlineStr">
         <is>
@@ -34425,7 +34425,7 @@
     </row>
     <row r="3400">
       <c r="A3400" t="n">
-        <v>7.492534134266299e+17</v>
+        <v>7.49253413426629e+17</v>
       </c>
       <c r="B3400" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
     </row>
     <row r="3401">
       <c r="A3401" t="n">
-        <v>7.497806572224224e+17</v>
+        <v>7.49780657222422e+17</v>
       </c>
       <c r="B3401" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
     </row>
     <row r="3402">
       <c r="A3402" t="n">
-        <v>7.505569548641496e+17</v>
+        <v>7.50556954864149e+17</v>
       </c>
       <c r="B3402" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
     </row>
     <row r="3405">
       <c r="A3405" t="n">
-        <v>7.612705444000129e+17</v>
+        <v>7.61270544400012e+17</v>
       </c>
       <c r="B3405" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
     </row>
     <row r="3406">
       <c r="A3406" t="n">
-        <v>7.632411548238863e+17</v>
+        <v>7.63241154823886e+17</v>
       </c>
       <c r="B3406" t="inlineStr">
         <is>
@@ -34495,7 +34495,7 @@
     </row>
     <row r="3407">
       <c r="A3407" t="n">
-        <v>7.632757328323761e+17</v>
+        <v>7.63275732832375e+17</v>
       </c>
       <c r="B3407" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
     </row>
     <row r="3408">
       <c r="A3408" t="n">
-        <v>7.637230378605363e+17</v>
+        <v>7.637230378605361e+17</v>
       </c>
       <c r="B3408" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
     </row>
     <row r="3409">
       <c r="A3409" t="n">
-        <v>7.637885074127462e+17</v>
+        <v>7.63788507412746e+17</v>
       </c>
       <c r="B3409" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
     </row>
     <row r="3410">
       <c r="A3410" t="n">
-        <v>7.663241864821855e+17</v>
+        <v>7.66324186482185e+17</v>
       </c>
       <c r="B3410" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
     </row>
     <row r="3411">
       <c r="A3411" t="n">
-        <v>7.672493868243144e+17</v>
+        <v>7.67249386824314e+17</v>
       </c>
       <c r="B3411" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
     </row>
     <row r="3413">
       <c r="A3413" t="n">
-        <v>7.689059070314061e+17</v>
+        <v>7.68905907031406e+17</v>
       </c>
       <c r="B3413" t="inlineStr">
         <is>
@@ -34565,7 +34565,7 @@
     </row>
     <row r="3414">
       <c r="A3414" t="n">
-        <v>7.696305175701958e+17</v>
+        <v>7.696305175701949e+17</v>
       </c>
       <c r="B3414" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
     </row>
     <row r="3415">
       <c r="A3415" t="n">
-        <v>7.700545531426478e+17</v>
+        <v>7.70054553142647e+17</v>
       </c>
       <c r="B3415" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
     </row>
     <row r="3417">
       <c r="A3417" t="n">
-        <v>7.716997416830441e+17</v>
+        <v>7.71699741683044e+17</v>
       </c>
       <c r="B3417" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
     </row>
     <row r="3418">
       <c r="A3418" t="n">
-        <v>7.717056080869293e+17</v>
+        <v>7.71705608086929e+17</v>
       </c>
       <c r="B3418" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
     </row>
     <row r="3420">
       <c r="A3420" t="n">
-        <v>7.759672508727693e+17</v>
+        <v>7.75967250872769e+17</v>
       </c>
       <c r="B3420" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
     </row>
     <row r="3421">
       <c r="A3421" t="n">
-        <v>7.759743724461254e+17</v>
+        <v>7.759743724461251e+17</v>
       </c>
       <c r="B3421" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
     </row>
     <row r="3422">
       <c r="A3422" t="n">
-        <v>7.759855937729219e+17</v>
+        <v>7.75985593772921e+17</v>
       </c>
       <c r="B3422" t="inlineStr">
         <is>
@@ -34665,7 +34665,7 @@
     </row>
     <row r="3424">
       <c r="A3424" t="n">
-        <v>7.823253093977509e+17</v>
+        <v>7.8232530939775e+17</v>
       </c>
       <c r="B3424" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
     </row>
     <row r="3425">
       <c r="A3425" t="n">
-        <v>7.824464697301591e+17</v>
+        <v>7.82446469730159e+17</v>
       </c>
       <c r="B3425" t="inlineStr">
         <is>
@@ -34685,7 +34685,7 @@
     </row>
     <row r="3426">
       <c r="A3426" t="n">
-        <v>7.839654018790086e+17</v>
+        <v>7.83965401879008e+17</v>
       </c>
       <c r="B3426" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
     </row>
     <row r="3427">
       <c r="A3427" t="n">
-        <v>7.887153524661002e+17</v>
+        <v>7.887153524661e+17</v>
       </c>
       <c r="B3427" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
     </row>
     <row r="3428">
       <c r="A3428" t="n">
-        <v>7.910808754971709e+17</v>
+        <v>7.9108087549717e+17</v>
       </c>
       <c r="B3428" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
     </row>
     <row r="3430">
       <c r="A3430" t="n">
-        <v>7.935741088163151e+17</v>
+        <v>7.93574108816315e+17</v>
       </c>
       <c r="B3430" t="inlineStr">
         <is>
@@ -34735,7 +34735,7 @@
     </row>
     <row r="3431">
       <c r="A3431" t="n">
-        <v>7.953834453748918e+17</v>
+        <v>7.95383445374891e+17</v>
       </c>
       <c r="B3431" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
     </row>
     <row r="3432">
       <c r="A3432" t="n">
-        <v>7.970276696413088e+17</v>
+        <v>7.97027669641308e+17</v>
       </c>
       <c r="B3432" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
     </row>
     <row r="3433">
       <c r="A3433" t="n">
-        <v>7.971408589706817e+17</v>
+        <v>7.97140858970681e+17</v>
       </c>
       <c r="B3433" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
     </row>
     <row r="3434">
       <c r="A3434" t="n">
-        <v>7.993638177909745e+17</v>
+        <v>7.99363817790974e+17</v>
       </c>
       <c r="B3434" t="inlineStr">
         <is>
@@ -34775,7 +34775,7 @@
     </row>
     <row r="3435">
       <c r="A3435" t="n">
-        <v>8.003476817758659e+17</v>
+        <v>8.00347681775866e+17</v>
       </c>
       <c r="B3435" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
     </row>
     <row r="3436">
       <c r="A3436" t="n">
-        <v>8.005069492976776e+17</v>
+        <v>8.005069492976771e+17</v>
       </c>
       <c r="B3436" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
     </row>
     <row r="3437">
       <c r="A3437" t="n">
-        <v>8.012219073884858e+17</v>
+        <v>8.01221907388485e+17</v>
       </c>
       <c r="B3437" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
     </row>
     <row r="3438">
       <c r="A3438" t="n">
-        <v>8.020837668051348e+17</v>
+        <v>8.02083766805134e+17</v>
       </c>
       <c r="B3438" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
     </row>
     <row r="3439">
       <c r="A3439" t="n">
-        <v>8.030207330361906e+17</v>
+        <v>8.0302073303619e+17</v>
       </c>
       <c r="B3439" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
     </row>
     <row r="3440">
       <c r="A3440" t="n">
-        <v>8.03461406659297e+17</v>
+        <v>8.03461406659296e+17</v>
       </c>
       <c r="B3440" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
     </row>
     <row r="3441">
       <c r="A3441" t="n">
-        <v>8.055722889700065e+17</v>
+        <v>8.05572288970006e+17</v>
       </c>
       <c r="B3441" t="inlineStr">
         <is>
@@ -34845,7 +34845,7 @@
     </row>
     <row r="3442">
       <c r="A3442" t="n">
-        <v>8.055785652848525e+17</v>
+        <v>8.05578565284852e+17</v>
       </c>
       <c r="B3442" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
     </row>
     <row r="3443">
       <c r="A3443" t="n">
-        <v>8.102168205238131e+17</v>
+        <v>8.10216820523813e+17</v>
       </c>
       <c r="B3443" t="inlineStr">
         <is>
@@ -34865,7 +34865,7 @@
     </row>
     <row r="3444">
       <c r="A3444" t="n">
-        <v>8.102934350442176e+17</v>
+        <v>8.10293435044217e+17</v>
       </c>
       <c r="B3444" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
     </row>
     <row r="3445">
       <c r="A3445" t="n">
-        <v>8.115801481252526e+17</v>
+        <v>8.11580148125252e+17</v>
       </c>
       <c r="B3445" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
     </row>
     <row r="3446">
       <c r="A3446" t="n">
-        <v>8.121514928030776e+17</v>
+        <v>8.12151492803077e+17</v>
       </c>
       <c r="B3446" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
     </row>
     <row r="3447">
       <c r="A3447" t="n">
-        <v>8.143730292871268e+17</v>
+        <v>8.14373029287126e+17</v>
       </c>
       <c r="B3447" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
     </row>
     <row r="3448">
       <c r="A3448" t="n">
-        <v>8.149186106720014e+17</v>
+        <v>8.14918610672001e+17</v>
       </c>
       <c r="B3448" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
     </row>
     <row r="3449">
       <c r="A3449" t="n">
-        <v>8.157656977242179e+17</v>
+        <v>8.15765697724218e+17</v>
       </c>
       <c r="B3449" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
     </row>
     <row r="3450">
       <c r="A3450" t="n">
-        <v>8.159804706790735e+17</v>
+        <v>8.15980470679073e+17</v>
       </c>
       <c r="B3450" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
     </row>
     <row r="3451">
       <c r="A3451" t="n">
-        <v>8.165270252900984e+17</v>
+        <v>8.16527025290098e+17</v>
       </c>
       <c r="B3451" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
     </row>
     <row r="3452">
       <c r="A3452" t="n">
-        <v>8.167369887180294e+17</v>
+        <v>8.167369887180291e+17</v>
       </c>
       <c r="B3452" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
     </row>
     <row r="3453">
       <c r="A3453" t="n">
-        <v>8.200895495452146e+17</v>
+        <v>8.20089549545214e+17</v>
       </c>
       <c r="B3453" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
     </row>
     <row r="3454">
       <c r="A3454" t="n">
-        <v>8.201165970484047e+17</v>
+        <v>8.20116597048404e+17</v>
       </c>
       <c r="B3454" t="inlineStr">
         <is>
@@ -34975,7 +34975,7 @@
     </row>
     <row r="3455">
       <c r="A3455" t="n">
-        <v>8.216482055192289e+17</v>
+        <v>8.216482055192291e+17</v>
       </c>
       <c r="B3455" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
     </row>
     <row r="3456">
       <c r="A3456" t="n">
-        <v>8.236429351533108e+17</v>
+        <v>8.2364293515331e+17</v>
       </c>
       <c r="B3456" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
     </row>
     <row r="3457">
       <c r="A3457" t="n">
-        <v>8.236933518968888e+17</v>
+        <v>8.236933518968881e+17</v>
       </c>
       <c r="B3457" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
     </row>
     <row r="3458">
       <c r="A3458" t="n">
-        <v>8.237742739954328e+17</v>
+        <v>8.237742739954319e+17</v>
       </c>
       <c r="B3458" t="inlineStr">
         <is>
@@ -35015,7 +35015,7 @@
     </row>
     <row r="3459">
       <c r="A3459" t="n">
-        <v>8.287241465647067e+17</v>
+        <v>8.28724146564706e+17</v>
       </c>
       <c r="B3459" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
     </row>
     <row r="3461">
       <c r="A3461" t="n">
-        <v>8.324952337817631e+17</v>
+        <v>8.324952337817629e+17</v>
       </c>
       <c r="B3461" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
     </row>
     <row r="3462">
       <c r="A3462" t="n">
-        <v>8.354425032285894e+17</v>
+        <v>8.354425032285891e+17</v>
       </c>
       <c r="B3462" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
     </row>
     <row r="3463">
       <c r="A3463" t="n">
-        <v>8.361690294484221e+17</v>
+        <v>8.36169029448422e+17</v>
       </c>
       <c r="B3463" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
     </row>
     <row r="3465">
       <c r="A3465" t="n">
-        <v>8.419017618338578e+17</v>
+        <v>8.41901761833857e+17</v>
       </c>
       <c r="B3465" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
     </row>
     <row r="3466">
       <c r="A3466" t="n">
-        <v>8.442570571908618e+17</v>
+        <v>8.442570571908611e+17</v>
       </c>
       <c r="B3466" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
     </row>
     <row r="3467">
       <c r="A3467" t="n">
-        <v>8.4569362797555e+17</v>
+        <v>8.456936279755491e+17</v>
       </c>
       <c r="B3467" t="inlineStr">
         <is>
@@ -35105,7 +35105,7 @@
     </row>
     <row r="3468">
       <c r="A3468" t="n">
-        <v>8.457933336115113e+17</v>
+        <v>8.45793333611511e+17</v>
       </c>
       <c r="B3468" t="inlineStr">
         <is>
@@ -35115,7 +35115,7 @@
     </row>
     <row r="3469">
       <c r="A3469" t="n">
-        <v>8.474147568610932e+17</v>
+        <v>8.47414756861093e+17</v>
       </c>
       <c r="B3469" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
     </row>
     <row r="3470">
       <c r="A3470" t="n">
-        <v>8.492991050087142e+17</v>
+        <v>8.49299105008714e+17</v>
       </c>
       <c r="B3470" t="inlineStr">
         <is>
@@ -35135,7 +35135,7 @@
     </row>
     <row r="3471">
       <c r="A3471" t="n">
-        <v>8.498830798324978e+17</v>
+        <v>8.49883079832497e+17</v>
       </c>
       <c r="B3471" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
     </row>
     <row r="3472">
       <c r="A3472" t="n">
-        <v>8.513914771419904e+17</v>
+        <v>8.5139147714199e+17</v>
       </c>
       <c r="B3472" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
     </row>
     <row r="3473">
       <c r="A3473" t="n">
-        <v>8.527601066578164e+17</v>
+        <v>8.527601066578161e+17</v>
       </c>
       <c r="B3473" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
     </row>
     <row r="3474">
       <c r="A3474" t="n">
-        <v>8.533129885903647e+17</v>
+        <v>8.53312988590364e+17</v>
       </c>
       <c r="B3474" t="inlineStr">
         <is>
@@ -35175,7 +35175,7 @@
     </row>
     <row r="3475">
       <c r="A3475" t="n">
-        <v>8.548668526844849e+17</v>
+        <v>8.54866852684484e+17</v>
       </c>
       <c r="B3475" t="inlineStr">
         <is>
@@ -35185,7 +35185,7 @@
     </row>
     <row r="3476">
       <c r="A3476" t="n">
-        <v>8.550285358187018e+17</v>
+        <v>8.550285358187011e+17</v>
       </c>
       <c r="B3476" t="inlineStr">
         <is>
@@ -35195,7 +35195,7 @@
     </row>
     <row r="3477">
       <c r="A3477" t="n">
-        <v>8.583953917247255e+17</v>
+        <v>8.58395391724725e+17</v>
       </c>
       <c r="B3477" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
     </row>
     <row r="3478">
       <c r="A3478" t="n">
-        <v>8.606281727462838e+17</v>
+        <v>8.60628172746283e+17</v>
       </c>
       <c r="B3478" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
     </row>
     <row r="3479">
       <c r="A3479" t="n">
-        <v>8.642104911373407e+17</v>
+        <v>8.6421049113734e+17</v>
       </c>
       <c r="B3479" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
     </row>
     <row r="3480">
       <c r="A3480" t="n">
-        <v>8.666036907359785e+17</v>
+        <v>8.66603690735978e+17</v>
       </c>
       <c r="B3480" t="inlineStr">
         <is>
@@ -35235,7 +35235,7 @@
     </row>
     <row r="3481">
       <c r="A3481" t="n">
-        <v>8.703315665566066e+17</v>
+        <v>8.70331566556606e+17</v>
       </c>
       <c r="B3481" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
     </row>
     <row r="3482">
       <c r="A3482" t="n">
-        <v>8.703379646645962e+17</v>
+        <v>8.70337964664596e+17</v>
       </c>
       <c r="B3482" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
     </row>
     <row r="3483">
       <c r="A3483" t="n">
-        <v>8.721663544756696e+17</v>
+        <v>8.72166354475669e+17</v>
       </c>
       <c r="B3483" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
     </row>
     <row r="3484">
       <c r="A3484" t="n">
-        <v>8.736327149625738e+17</v>
+        <v>8.736327149625731e+17</v>
       </c>
       <c r="B3484" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
     </row>
     <row r="3485">
       <c r="A3485" t="n">
-        <v>8.743689408927485e+17</v>
+        <v>8.74368940892748e+17</v>
       </c>
       <c r="B3485" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
     </row>
     <row r="3487">
       <c r="A3487" t="n">
-        <v>8.779750934682624e+17</v>
+        <v>8.77975093468262e+17</v>
       </c>
       <c r="B3487" t="inlineStr">
         <is>
@@ -35305,7 +35305,7 @@
     </row>
     <row r="3488">
       <c r="A3488" t="n">
-        <v>8.780994042186156e+17</v>
+        <v>8.78099404218615e+17</v>
       </c>
       <c r="B3488" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
     </row>
     <row r="3489">
       <c r="A3489" t="n">
-        <v>8.802552644133015e+17</v>
+        <v>8.80255264413301e+17</v>
       </c>
       <c r="B3489" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
     </row>
     <row r="3490">
       <c r="A3490" t="n">
-        <v>8.817671876182198e+17</v>
+        <v>8.81767187618219e+17</v>
       </c>
       <c r="B3490" t="inlineStr">
         <is>
@@ -35335,7 +35335,7 @@
     </row>
     <row r="3491">
       <c r="A3491" t="n">
-        <v>8.833384225935835e+17</v>
+        <v>8.83338422593583e+17</v>
       </c>
       <c r="B3491" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
     </row>
     <row r="3492">
       <c r="A3492" t="n">
-        <v>8.847903893591555e+17</v>
+        <v>8.847903893591549e+17</v>
       </c>
       <c r="B3492" t="inlineStr">
         <is>
@@ -35355,7 +35355,7 @@
     </row>
     <row r="3493">
       <c r="A3493" t="n">
-        <v>8.873332518617395e+17</v>
+        <v>8.87333251861739e+17</v>
       </c>
       <c r="B3493" t="inlineStr">
         <is>
@@ -35365,7 +35365,7 @@
     </row>
     <row r="3494">
       <c r="A3494" t="n">
-        <v>8.873584491190052e+17</v>
+        <v>8.873584491190051e+17</v>
       </c>
       <c r="B3494" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
     </row>
     <row r="3495">
       <c r="A3495" t="n">
-        <v>8.887659379411067e+17</v>
+        <v>8.88765937941106e+17</v>
       </c>
       <c r="B3495" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
     </row>
     <row r="3496">
       <c r="A3496" t="n">
-        <v>8.888056618093044e+17</v>
+        <v>8.888056618093041e+17</v>
       </c>
       <c r="B3496" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
     </row>
     <row r="3497">
       <c r="A3497" t="n">
-        <v>8.88919199502474e+17</v>
+        <v>8.88919199502473e+17</v>
       </c>
       <c r="B3497" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
     </row>
     <row r="3498">
       <c r="A3498" t="n">
-        <v>8.910178278660544e+17</v>
+        <v>8.91017827866054e+17</v>
       </c>
       <c r="B3498" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
     </row>
     <row r="3499">
       <c r="A3499" t="n">
-        <v>8.913941130827758e+17</v>
+        <v>8.91394113082775e+17</v>
       </c>
       <c r="B3499" t="inlineStr">
         <is>
@@ -35425,7 +35425,7 @@
     </row>
     <row r="3500">
       <c r="A3500" t="n">
-        <v>8.932203251807406e+17</v>
+        <v>8.9322032518074e+17</v>
       </c>
       <c r="B3500" t="inlineStr">
         <is>
@@ -35435,7 +35435,7 @@
     </row>
     <row r="3501">
       <c r="A3501" t="n">
-        <v>8.932257538071601e+17</v>
+        <v>8.93225753807159e+17</v>
       </c>
       <c r="B3501" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
     </row>
     <row r="3502">
       <c r="A3502" t="n">
-        <v>8.939162945611095e+17</v>
+        <v>8.93916294561109e+17</v>
       </c>
       <c r="B3502" t="inlineStr">
         <is>
@@ -35455,7 +35455,7 @@
     </row>
     <row r="3503">
       <c r="A3503" t="n">
-        <v>8.947570256322173e+17</v>
+        <v>8.94757025632217e+17</v>
       </c>
       <c r="B3503" t="inlineStr">
         <is>
@@ -35465,7 +35465,7 @@
     </row>
     <row r="3504">
       <c r="A3504" t="n">
-        <v>8.961333813680129e+17</v>
+        <v>8.96133381368012e+17</v>
       </c>
       <c r="B3504" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
     </row>
     <row r="3505">
       <c r="A3505" t="n">
-        <v>8.963619542948951e+17</v>
+        <v>8.96361954294895e+17</v>
       </c>
       <c r="B3505" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
     </row>
     <row r="3506">
       <c r="A3506" t="n">
-        <v>8.971151928084383e+17</v>
+        <v>8.97115192808438e+17</v>
       </c>
       <c r="B3506" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
     </row>
     <row r="3507">
       <c r="A3507" t="n">
-        <v>8.972135394007878e+17</v>
+        <v>8.972135394007869e+17</v>
       </c>
       <c r="B3507" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
     </row>
     <row r="3508">
       <c r="A3508" t="n">
-        <v>8.998261916268671e+17</v>
+        <v>8.998261916268669e+17</v>
       </c>
       <c r="B3508" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
     </row>
     <row r="3509">
       <c r="A3509" t="n">
-        <v>8.998421170724294e+17</v>
+        <v>8.998421170724291e+17</v>
       </c>
       <c r="B3509" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
     </row>
     <row r="3510">
       <c r="A3510" t="n">
-        <v>9.013327673115914e+17</v>
+        <v>9.01332767311591e+17</v>
       </c>
       <c r="B3510" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
     </row>
     <row r="3511">
       <c r="A3511" t="n">
-        <v>9.018921835337016e+17</v>
+        <v>9.01892183533701e+17</v>
       </c>
       <c r="B3511" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
     </row>
     <row r="3512">
       <c r="A3512" t="n">
-        <v>9.019568035817485e+17</v>
+        <v>9.01956803581748e+17</v>
       </c>
       <c r="B3512" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
     </row>
     <row r="3513">
       <c r="A3513" t="n">
-        <v>9.021973555058136e+17</v>
+        <v>9.02197355505813e+17</v>
       </c>
       <c r="B3513" t="inlineStr">
         <is>
@@ -35565,7 +35565,7 @@
     </row>
     <row r="3514">
       <c r="A3514" t="n">
-        <v>9.035248637906509e+17</v>
+        <v>9.0352486379065e+17</v>
       </c>
       <c r="B3514" t="inlineStr">
         <is>
@@ -35575,7 +35575,7 @@
     </row>
     <row r="3515">
       <c r="A3515" t="n">
-        <v>9.035744198268307e+17</v>
+        <v>9.0357441982683e+17</v>
       </c>
       <c r="B3515" t="inlineStr">
         <is>
@@ -35585,7 +35585,7 @@
     </row>
     <row r="3516">
       <c r="A3516" t="n">
-        <v>9.055448004777875e+17</v>
+        <v>9.05544800477787e+17</v>
       </c>
       <c r="B3516" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
     </row>
     <row r="3517">
       <c r="A3517" t="n">
-        <v>9.056074894028736e+17</v>
+        <v>9.05607489402873e+17</v>
       </c>
       <c r="B3517" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
     </row>
     <row r="3518">
       <c r="A3518" t="n">
-        <v>9.058231110461412e+17</v>
+        <v>9.058231110461411e+17</v>
       </c>
       <c r="B3518" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
     </row>
     <row r="3519">
       <c r="A3519" t="n">
-        <v>9.072071294120709e+17</v>
+        <v>9.0720712941207e+17</v>
       </c>
       <c r="B3519" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
     </row>
     <row r="3521">
       <c r="A3521" t="n">
-        <v>9.087424428697449e+17</v>
+        <v>9.08742442869745e+17</v>
       </c>
       <c r="B3521" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
     </row>
     <row r="3522">
       <c r="A3522" t="n">
-        <v>9.094973622499689e+17</v>
+        <v>9.09497362249969e+17</v>
       </c>
       <c r="B3522" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
     </row>
     <row r="3523">
       <c r="A3523" t="n">
-        <v>9.114836611723992e+17</v>
+        <v>9.11483661172399e+17</v>
       </c>
       <c r="B3523" t="inlineStr">
         <is>
@@ -35665,7 +35665,7 @@
     </row>
     <row r="3524">
       <c r="A3524" t="n">
-        <v>9.116018119098365e+17</v>
+        <v>9.11601811909836e+17</v>
       </c>
       <c r="B3524" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
     </row>
     <row r="3525">
       <c r="A3525" t="n">
-        <v>9.116357098581993e+17</v>
+        <v>9.11635709858199e+17</v>
       </c>
       <c r="B3525" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
     </row>
     <row r="3526">
       <c r="A3526" t="n">
-        <v>9.128386416296012e+17</v>
+        <v>9.12838641629601e+17</v>
       </c>
       <c r="B3526" t="inlineStr">
         <is>
@@ -35695,7 +35695,7 @@
     </row>
     <row r="3527">
       <c r="A3527" t="n">
-        <v>9.131108380803517e+17</v>
+        <v>9.13110838080351e+17</v>
       </c>
       <c r="B3527" t="inlineStr">
         <is>
@@ -35705,7 +35705,7 @@
     </row>
     <row r="3528">
       <c r="A3528" t="n">
-        <v>9.135857092555953e+17</v>
+        <v>9.13585709255595e+17</v>
       </c>
       <c r="B3528" t="inlineStr">
         <is>
@@ -35715,7 +35715,7 @@
     </row>
     <row r="3529">
       <c r="A3529" t="n">
-        <v>9.137719215321603e+17</v>
+        <v>9.1377192153216e+17</v>
       </c>
       <c r="B3529" t="inlineStr">
         <is>
@@ -35725,7 +35725,7 @@
     </row>
     <row r="3530">
       <c r="A3530" t="n">
-        <v>9.142856882169213e+17</v>
+        <v>9.14285688216921e+17</v>
       </c>
       <c r="B3530" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
     </row>
     <row r="3531">
       <c r="A3531" t="n">
-        <v>9.151343322953032e+17</v>
+        <v>9.15134332295303e+17</v>
       </c>
       <c r="B3531" t="inlineStr">
         <is>
@@ -35745,7 +35745,7 @@
     </row>
     <row r="3532">
       <c r="A3532" t="n">
-        <v>9.158897627729339e+17</v>
+        <v>9.15889762772933e+17</v>
       </c>
       <c r="B3532" t="inlineStr">
         <is>
@@ -35755,7 +35755,7 @@
     </row>
     <row r="3533">
       <c r="A3533" t="n">
-        <v>9.159974300889213e+17</v>
+        <v>9.15997430088921e+17</v>
       </c>
       <c r="B3533" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
     </row>
     <row r="3534">
       <c r="A3534" t="n">
-        <v>9.166264797165448e+17</v>
+        <v>9.16626479716544e+17</v>
       </c>
       <c r="B3534" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
     </row>
     <row r="3535">
       <c r="A3535" t="n">
-        <v>9.166568553595117e+17</v>
+        <v>9.16656855359511e+17</v>
       </c>
       <c r="B3535" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
     </row>
     <row r="3536">
       <c r="A3536" t="n">
-        <v>9.173028184796691e+17</v>
+        <v>9.17302818479669e+17</v>
       </c>
       <c r="B3536" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
     </row>
     <row r="3537">
       <c r="A3537" t="n">
-        <v>9.178971889940621e+17</v>
+        <v>9.17897188994062e+17</v>
       </c>
       <c r="B3537" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
     </row>
     <row r="3538">
       <c r="A3538" t="n">
-        <v>9.180335355135475e+17</v>
+        <v>9.18033535513547e+17</v>
       </c>
       <c r="B3538" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
     </row>
     <row r="3539">
       <c r="A3539" t="n">
-        <v>9.181510632738112e+17</v>
+        <v>9.181510632738109e+17</v>
       </c>
       <c r="B3539" t="inlineStr">
         <is>
@@ -35825,7 +35825,7 @@
     </row>
     <row r="3540">
       <c r="A3540" t="n">
-        <v>9.186244557290483e+17</v>
+        <v>9.186244557290481e+17</v>
       </c>
       <c r="B3540" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
     </row>
     <row r="3541">
       <c r="A3541" t="n">
-        <v>9.187405241434724e+17</v>
+        <v>9.18740524143472e+17</v>
       </c>
       <c r="B3541" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
     </row>
     <row r="3542">
       <c r="A3542" t="n">
-        <v>9.200749430878401e+17</v>
+        <v>9.2007494308784e+17</v>
       </c>
       <c r="B3542" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
     </row>
     <row r="3543">
       <c r="A3543" t="n">
-        <v>9.207440446614886e+17</v>
+        <v>9.20744044661488e+17</v>
       </c>
       <c r="B3543" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
     </row>
     <row r="3544">
       <c r="A3544" t="n">
-        <v>9.230549876804312e+17</v>
+        <v>9.23054987680431e+17</v>
       </c>
       <c r="B3544" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
     </row>
     <row r="3545">
       <c r="A3545" t="n">
-        <v>9.235364132666568e+17</v>
+        <v>9.23536413266656e+17</v>
       </c>
       <c r="B3545" t="inlineStr">
         <is>
@@ -35885,7 +35885,7 @@
     </row>
     <row r="3546">
       <c r="A3546" t="n">
-        <v>9.243364097820362e+17</v>
+        <v>9.24336409782036e+17</v>
       </c>
       <c r="B3546" t="inlineStr">
         <is>
@@ -35895,7 +35895,7 @@
     </row>
     <row r="3547">
       <c r="A3547" t="n">
-        <v>9.257907211920668e+17</v>
+        <v>9.25790721192066e+17</v>
       </c>
       <c r="B3547" t="inlineStr">
         <is>
@@ -35905,7 +35905,7 @@
     </row>
     <row r="3548">
       <c r="A3548" t="n">
-        <v>9.258504143841687e+17</v>
+        <v>9.258504143841679e+17</v>
       </c>
       <c r="B3548" t="inlineStr">
         <is>
@@ -35915,7 +35915,7 @@
     </row>
     <row r="3549">
       <c r="A3549" t="n">
-        <v>9.260386332743136e+17</v>
+        <v>9.26038633274313e+17</v>
       </c>
       <c r="B3549" t="inlineStr">
         <is>
@@ -35925,7 +35925,7 @@
     </row>
     <row r="3550">
       <c r="A3550" t="n">
-        <v>9.265525414536191e+17</v>
+        <v>9.265525414536189e+17</v>
       </c>
       <c r="B3550" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
     </row>
     <row r="3551">
       <c r="A3551" t="n">
-        <v>9.265810142600787e+17</v>
+        <v>9.26581014260078e+17</v>
       </c>
       <c r="B3551" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
     </row>
     <row r="3552">
       <c r="A3552" t="n">
-        <v>9.266606388415213e+17</v>
+        <v>9.26660638841521e+17</v>
       </c>
       <c r="B3552" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
     </row>
     <row r="3553">
       <c r="A3553" t="n">
-        <v>9.287299816888248e+17</v>
+        <v>9.287299816888241e+17</v>
       </c>
       <c r="B3553" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
     </row>
     <row r="3554">
       <c r="A3554" t="n">
-        <v>9.290494563224173e+17</v>
+        <v>9.29049456322417e+17</v>
       </c>
       <c r="B3554" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
     </row>
     <row r="3556">
       <c r="A3556" t="n">
-        <v>9.295058062490426e+17</v>
+        <v>9.29505806249042e+17</v>
       </c>
       <c r="B3556" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
     </row>
     <row r="3557">
       <c r="A3557" t="n">
-        <v>9.310055231508122e+17</v>
+        <v>9.31005523150812e+17</v>
       </c>
       <c r="B3557" t="inlineStr">
         <is>
@@ -36005,7 +36005,7 @@
     </row>
     <row r="3558">
       <c r="A3558" t="n">
-        <v>9.310829120066588e+17</v>
+        <v>9.31082912006658e+17</v>
       </c>
       <c r="B3558" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
     </row>
     <row r="3559">
       <c r="A3559" t="n">
-        <v>9.334292804317651e+17</v>
+        <v>9.33429280431765e+17</v>
       </c>
       <c r="B3559" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
     </row>
     <row r="3560">
       <c r="A3560" t="n">
-        <v>9.341562749644401e+17</v>
+        <v>9.34156274964439e+17</v>
       </c>
       <c r="B3560" t="inlineStr">
         <is>
@@ -36035,7 +36035,7 @@
     </row>
     <row r="3561">
       <c r="A3561" t="n">
-        <v>9.346494667448484e+17</v>
+        <v>9.34649466744848e+17</v>
       </c>
       <c r="B3561" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
     </row>
     <row r="3562">
       <c r="A3562" t="n">
-        <v>9.347964775755208e+17</v>
+        <v>9.3479647757552e+17</v>
       </c>
       <c r="B3562" t="inlineStr">
         <is>
@@ -36055,7 +36055,7 @@
     </row>
     <row r="3563">
       <c r="A3563" t="n">
-        <v>9.351316106985972e+17</v>
+        <v>9.35131610698597e+17</v>
       </c>
       <c r="B3563" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
     </row>
     <row r="3564">
       <c r="A3564" t="n">
-        <v>9.351376753885463e+17</v>
+        <v>9.35137675388546e+17</v>
       </c>
       <c r="B3564" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
     </row>
     <row r="3565">
       <c r="A3565" t="n">
-        <v>9.351436410598808e+17</v>
+        <v>9.351436410598799e+17</v>
       </c>
       <c r="B3565" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
     </row>
     <row r="3566">
       <c r="A3566" t="n">
-        <v>9.354000130072161e+17</v>
+        <v>9.35400013007216e+17</v>
       </c>
       <c r="B3566" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
     </row>
     <row r="3567">
       <c r="A3567" t="n">
-        <v>9.354000138300046e+17</v>
+        <v>9.35400013830004e+17</v>
       </c>
       <c r="B3567" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
     </row>
     <row r="3568">
       <c r="A3568" t="n">
-        <v>9.35401010194197e+17</v>
+        <v>9.35401010194196e+17</v>
       </c>
       <c r="B3568" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
     </row>
     <row r="3569">
       <c r="A3569" t="n">
-        <v>9.354011765242634e+17</v>
+        <v>9.35401176524263e+17</v>
       </c>
       <c r="B3569" t="inlineStr">
         <is>
@@ -36125,7 +36125,7 @@
     </row>
     <row r="3570">
       <c r="A3570" t="n">
-        <v>9.354012305523313e+17</v>
+        <v>9.35401230552331e+17</v>
       </c>
       <c r="B3570" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
     </row>
     <row r="3571">
       <c r="A3571" t="n">
-        <v>9.375042051037236e+17</v>
+        <v>9.37504205103723e+17</v>
       </c>
       <c r="B3571" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
     </row>
     <row r="3572">
       <c r="A3572" t="n">
-        <v>9.377972604896243e+17</v>
+        <v>9.377972604896241e+17</v>
       </c>
       <c r="B3572" t="inlineStr">
         <is>
@@ -36155,7 +36155,7 @@
     </row>
     <row r="3573">
       <c r="A3573" t="n">
-        <v>9.384632836260288e+17</v>
+        <v>9.38463283626028e+17</v>
       </c>
       <c r="B3573" t="inlineStr">
         <is>
@@ -36165,7 +36165,7 @@
     </row>
     <row r="3574">
       <c r="A3574" t="n">
-        <v>9.389932914122536e+17</v>
+        <v>9.389932914122531e+17</v>
       </c>
       <c r="B3574" t="inlineStr">
         <is>
@@ -36175,7 +36175,7 @@
     </row>
     <row r="3575">
       <c r="A3575" t="n">
-        <v>9.403459864687747e+17</v>
+        <v>9.40345986468774e+17</v>
       </c>
       <c r="B3575" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
     </row>
     <row r="3576">
       <c r="A3576" t="n">
-        <v>9.427659929575488e+17</v>
+        <v>9.42765992957548e+17</v>
       </c>
       <c r="B3576" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
     </row>
     <row r="3577">
       <c r="A3577" t="n">
-        <v>9.446681740684746e+17</v>
+        <v>9.44668174068474e+17</v>
       </c>
       <c r="B3577" t="inlineStr">
         <is>
@@ -36215,7 +36215,7 @@
     </row>
     <row r="3579">
       <c r="A3579" t="n">
-        <v>9.468469786375421e+17</v>
+        <v>9.46846978637542e+17</v>
       </c>
       <c r="B3579" t="inlineStr">
         <is>
@@ -36225,7 +36225,7 @@
     </row>
     <row r="3580">
       <c r="A3580" t="n">
-        <v>9.475494119452644e+17</v>
+        <v>9.47549411945264e+17</v>
       </c>
       <c r="B3580" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
     </row>
     <row r="3581">
       <c r="A3581" t="n">
-        <v>9.483766284769244e+17</v>
+        <v>9.48376628476924e+17</v>
       </c>
       <c r="B3581" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
     </row>
     <row r="3582">
       <c r="A3582" t="n">
-        <v>9.483852205260312e+17</v>
+        <v>9.48385220526031e+17</v>
       </c>
       <c r="B3582" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
     </row>
     <row r="3583">
       <c r="A3583" t="n">
-        <v>9.483894636537943e+17</v>
+        <v>9.48389463653794e+17</v>
       </c>
       <c r="B3583" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
     </row>
     <row r="3584">
       <c r="A3584" t="n">
-        <v>9.485090939924467e+17</v>
+        <v>9.48509093992446e+17</v>
       </c>
       <c r="B3584" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
     </row>
     <row r="3585">
       <c r="A3585" t="n">
-        <v>9.505619432391621e+17</v>
+        <v>9.50561943239161e+17</v>
       </c>
       <c r="B3585" t="inlineStr">
         <is>
@@ -36285,7 +36285,7 @@
     </row>
     <row r="3586">
       <c r="A3586" t="n">
-        <v>9.506096286915496e+17</v>
+        <v>9.506096286915491e+17</v>
       </c>
       <c r="B3586" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
     </row>
     <row r="3587">
       <c r="A3587" t="n">
-        <v>9.51825489095849e+17</v>
+        <v>9.518254890958479e+17</v>
       </c>
       <c r="B3587" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
     </row>
     <row r="3588">
       <c r="A3588" t="n">
-        <v>9.519226225898504e+17</v>
+        <v>9.5192262258985e+17</v>
       </c>
       <c r="B3588" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
     </row>
     <row r="3589">
       <c r="A3589" t="n">
-        <v>9.520297093059802e+17</v>
+        <v>9.5202970930598e+17</v>
       </c>
       <c r="B3589" t="inlineStr">
         <is>
@@ -36325,7 +36325,7 @@
     </row>
     <row r="3590">
       <c r="A3590" t="n">
-        <v>9.521848960847923e+17</v>
+        <v>9.521848960847921e+17</v>
       </c>
       <c r="B3590" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
     </row>
     <row r="3591">
       <c r="A3591" t="n">
-        <v>9.540652749069373e+17</v>
+        <v>9.54065274906937e+17</v>
       </c>
       <c r="B3591" t="inlineStr">
         <is>
@@ -36345,7 +36345,7 @@
     </row>
     <row r="3592">
       <c r="A3592" t="n">
-        <v>9.542353063328301e+17</v>
+        <v>9.5423530633283e+17</v>
       </c>
       <c r="B3592" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
     </row>
     <row r="3593">
       <c r="A3593" t="n">
-        <v>9.569324116020767e+17</v>
+        <v>9.56932411602076e+17</v>
       </c>
       <c r="B3593" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
     </row>
     <row r="3594">
       <c r="A3594" t="n">
-        <v>9.5732138070251e+17</v>
+        <v>9.573213807025091e+17</v>
       </c>
       <c r="B3594" t="inlineStr">
         <is>
@@ -36375,7 +36375,7 @@
     </row>
     <row r="3595">
       <c r="A3595" t="n">
-        <v>9.629985704969134e+17</v>
+        <v>9.62998570496913e+17</v>
       </c>
       <c r="B3595" t="inlineStr">
         <is>
@@ -36385,7 +36385,7 @@
     </row>
     <row r="3596">
       <c r="A3596" t="n">
-        <v>9.636347697037138e+17</v>
+        <v>9.63634769703713e+17</v>
       </c>
       <c r="B3596" t="inlineStr">
         <is>
@@ -36395,7 +36395,7 @@
     </row>
     <row r="3597">
       <c r="A3597" t="n">
-        <v>9.652524637911104e+17</v>
+        <v>9.6525246379111e+17</v>
       </c>
       <c r="B3597" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
     </row>
     <row r="3598">
       <c r="A3598" t="n">
-        <v>9.656824975674829e+17</v>
+        <v>9.65682497567482e+17</v>
       </c>
       <c r="B3598" t="inlineStr">
         <is>
@@ -36415,7 +36415,7 @@
     </row>
     <row r="3599">
       <c r="A3599" t="n">
-        <v>9.665947913002976e+17</v>
+        <v>9.66594791300297e+17</v>
       </c>
       <c r="B3599" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
     </row>
     <row r="3600">
       <c r="A3600" t="n">
-        <v>9.679294253610583e+17</v>
+        <v>9.67929425361058e+17</v>
       </c>
       <c r="B3600" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
     </row>
     <row r="3601">
       <c r="A3601" t="n">
-        <v>9.680036798846223e+17</v>
+        <v>9.68003679884622e+17</v>
       </c>
       <c r="B3601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
     </row>
     <row r="3602">
       <c r="A3602" t="n">
-        <v>9.687286998606979e+17</v>
+        <v>9.68728699860698e+17</v>
       </c>
       <c r="B3602" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
     </row>
     <row r="3603">
       <c r="A3603" t="n">
-        <v>9.694979347345869e+17</v>
+        <v>9.69497934734586e+17</v>
       </c>
       <c r="B3603" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
     </row>
     <row r="3605">
       <c r="A3605" t="n">
-        <v>9.744947469338442e+17</v>
+        <v>9.74494746933844e+17</v>
       </c>
       <c r="B3605" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
     </row>
     <row r="3607">
       <c r="A3607" t="n">
-        <v>9.773003773241994e+17</v>
+        <v>9.77300377324199e+17</v>
       </c>
       <c r="B3607" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
     </row>
     <row r="3608">
       <c r="A3608" t="n">
-        <v>9.779270380054351e+17</v>
+        <v>9.77927038005435e+17</v>
       </c>
       <c r="B3608" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
     </row>
     <row r="3609">
       <c r="A3609" t="n">
-        <v>9.781843185226898e+17</v>
+        <v>9.78184318522689e+17</v>
       </c>
       <c r="B3609" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
     </row>
     <row r="3610">
       <c r="A3610" t="n">
-        <v>9.787080820623076e+17</v>
+        <v>9.787080820623069e+17</v>
       </c>
       <c r="B3610" t="inlineStr">
         <is>
@@ -36535,7 +36535,7 @@
     </row>
     <row r="3611">
       <c r="A3611" t="n">
-        <v>9.790389005423939e+17</v>
+        <v>9.79038900542393e+17</v>
       </c>
       <c r="B3611" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
     </row>
     <row r="3612">
       <c r="A3612" t="n">
-        <v>9.790630333685059e+17</v>
+        <v>9.79063033368506e+17</v>
       </c>
       <c r="B3612" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
     </row>
     <row r="3613">
       <c r="A3613" t="n">
-        <v>9.794040123308764e+17</v>
+        <v>9.79404012330876e+17</v>
       </c>
       <c r="B3613" t="inlineStr">
         <is>
@@ -36575,7 +36575,7 @@
     </row>
     <row r="3615">
       <c r="A3615" t="n">
-        <v>9.825009056167032e+17</v>
+        <v>9.82500905616703e+17</v>
       </c>
       <c r="B3615" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
     </row>
     <row r="3616">
       <c r="A3616" t="n">
-        <v>9.826619710113992e+17</v>
+        <v>9.82661971011399e+17</v>
       </c>
       <c r="B3616" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
     </row>
     <row r="3617">
       <c r="A3617" t="n">
-        <v>9.830199526202336e+17</v>
+        <v>9.83019952620233e+17</v>
       </c>
       <c r="B3617" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
     </row>
     <row r="3618">
       <c r="A3618" t="n">
-        <v>9.839281169288769e+17</v>
+        <v>9.839281169288771e+17</v>
       </c>
       <c r="B3618" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
     </row>
     <row r="3620">
       <c r="A3620" t="n">
-        <v>9.846030125287027e+17</v>
+        <v>9.84603012528702e+17</v>
       </c>
       <c r="B3620" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
     </row>
     <row r="3622">
       <c r="A3622" t="n">
-        <v>9.861781649148585e+17</v>
+        <v>9.86178164914858e+17</v>
       </c>
       <c r="B3622" t="inlineStr">
         <is>
@@ -36655,7 +36655,7 @@
     </row>
     <row r="3623">
       <c r="A3623" t="n">
-        <v>9.877531026803633e+17</v>
+        <v>9.87753102680363e+17</v>
       </c>
       <c r="B3623" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
     </row>
     <row r="3624">
       <c r="A3624" t="n">
-        <v>9.889166194958624e+17</v>
+        <v>9.88916619495862e+17</v>
       </c>
       <c r="B3624" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
     </row>
     <row r="3625">
       <c r="A3625" t="n">
-        <v>9.893107465868956e+17</v>
+        <v>9.89310746586895e+17</v>
       </c>
       <c r="B3625" t="inlineStr">
         <is>
@@ -36685,7 +36685,7 @@
     </row>
     <row r="3626">
       <c r="A3626" t="n">
-        <v>9.896257993996178e+17</v>
+        <v>9.89625799399617e+17</v>
       </c>
       <c r="B3626" t="inlineStr">
         <is>
@@ -36695,7 +36695,7 @@
     </row>
     <row r="3627">
       <c r="A3627" t="n">
-        <v>9.897055293111831e+17</v>
+        <v>9.89705529311183e+17</v>
       </c>
       <c r="B3627" t="inlineStr">
         <is>
@@ -36705,7 +36705,7 @@
     </row>
     <row r="3628">
       <c r="A3628" t="n">
-        <v>9.909862615869331e+17</v>
+        <v>9.90986261586933e+17</v>
       </c>
       <c r="B3628" t="inlineStr">
         <is>
@@ -36715,7 +36715,7 @@
     </row>
     <row r="3629">
       <c r="A3629" t="n">
-        <v>9.92618716325268e+17</v>
+        <v>9.926187163252669e+17</v>
       </c>
       <c r="B3629" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
     </row>
     <row r="3630">
       <c r="A3630" t="n">
-        <v>9.932672330364909e+17</v>
+        <v>9.9326723303649e+17</v>
       </c>
       <c r="B3630" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
     </row>
     <row r="3631">
       <c r="A3631" t="n">
-        <v>9.934639936347044e+17</v>
+        <v>9.93463993634704e+17</v>
       </c>
       <c r="B3631" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
     </row>
     <row r="3632">
       <c r="A3632" t="n">
-        <v>9.938401642517865e+17</v>
+        <v>9.93840164251786e+17</v>
       </c>
       <c r="B3632" t="inlineStr">
         <is>
@@ -36755,7 +36755,7 @@
     </row>
     <row r="3633">
       <c r="A3633" t="n">
-        <v>9.942338511837847e+17</v>
+        <v>9.942338511837839e+17</v>
       </c>
       <c r="B3633" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
     </row>
     <row r="3634">
       <c r="A3634" t="n">
-        <v>9.942378217645609e+17</v>
+        <v>9.94237821764561e+17</v>
       </c>
       <c r="B3634" t="inlineStr">
         <is>
@@ -36775,7 +36775,7 @@
     </row>
     <row r="3635">
       <c r="A3635" t="n">
-        <v>9.957349931379625e+17</v>
+        <v>9.95734993137962e+17</v>
       </c>
       <c r="B3635" t="inlineStr">
         <is>
@@ -36785,7 +36785,7 @@
     </row>
     <row r="3636">
       <c r="A3636" t="n">
-        <v>9.975868324350605e+17</v>
+        <v>9.9758683243506e+17</v>
       </c>
       <c r="B3636" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
     </row>
     <row r="3637">
       <c r="A3637" t="n">
-        <v>9.984934273346776e+17</v>
+        <v>9.98493427334677e+17</v>
       </c>
       <c r="B3637" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
     </row>
     <row r="3638">
       <c r="A3638" t="n">
-        <v>9.984934798750556e+17</v>
+        <v>9.98493479875055e+17</v>
       </c>
       <c r="B3638" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
     </row>
     <row r="3639">
       <c r="A3639" t="n">
-        <v>9.984935214212073e+17</v>
+        <v>9.98493521421207e+17</v>
       </c>
       <c r="B3639" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
     </row>
     <row r="3640">
       <c r="A3640" t="n">
-        <v>9.991168293116486e+17</v>
+        <v>9.99116829311648e+17</v>
       </c>
       <c r="B3640" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
     </row>
     <row r="3641">
       <c r="A3641" t="n">
-        <v>9.999919097557907e+17</v>
+        <v>9.9999190975579e+17</v>
       </c>
       <c r="B3641" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
     </row>
     <row r="3642">
       <c r="A3642" t="n">
-        <v>1.004420563003745e+18</v>
+        <v>1.00442056300374e+18</v>
       </c>
       <c r="B3642" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
     </row>
     <row r="3643">
       <c r="A3643" t="n">
-        <v>1.004846823211852e+18</v>
+        <v>1.00484682321185e+18</v>
       </c>
       <c r="B3643" t="inlineStr">
         <is>
@@ -36865,7 +36865,7 @@
     </row>
     <row r="3644">
       <c r="A3644" t="n">
-        <v>1.004910876582769e+18</v>
+        <v>1.00491087658276e+18</v>
       </c>
       <c r="B3644" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
     </row>
     <row r="3645">
       <c r="A3645" t="n">
-        <v>1.006875744011153e+18</v>
+        <v>1.00687574401115e+18</v>
       </c>
       <c r="B3645" t="inlineStr">
         <is>
@@ -36885,7 +36885,7 @@
     </row>
     <row r="3646">
       <c r="A3646" t="n">
-        <v>1.007107161563112e+18</v>
+        <v>1.00710716156311e+18</v>
       </c>
       <c r="B3646" t="inlineStr">
         <is>
@@ -36905,7 +36905,7 @@
     </row>
     <row r="3648">
       <c r="A3648" t="n">
-        <v>1.007857111519864e+18</v>
+        <v>1.00785711151986e+18</v>
       </c>
       <c r="B3648" t="inlineStr">
         <is>
@@ -36915,7 +36915,7 @@
     </row>
     <row r="3649">
       <c r="A3649" t="n">
-        <v>1.008038249681595e+18</v>
+        <v>1.00803824968159e+18</v>
       </c>
       <c r="B3649" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
     </row>
     <row r="3650">
       <c r="A3650" t="n">
-        <v>1.009064321534006e+18</v>
+        <v>1.009064321534e+18</v>
       </c>
       <c r="B3650" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
     </row>
     <row r="3651">
       <c r="A3651" t="n">
-        <v>1.009233708742232e+18</v>
+        <v>1.00923370874223e+18</v>
       </c>
       <c r="B3651" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
     </row>
     <row r="3652">
       <c r="A3652" t="n">
-        <v>1.011325582188356e+18</v>
+        <v>1.01132558218835e+18</v>
       </c>
       <c r="B3652" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
     </row>
     <row r="3653">
       <c r="A3653" t="n">
-        <v>1.011529040768393e+18</v>
+        <v>1.01152904076839e+18</v>
       </c>
       <c r="B3653" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
     </row>
     <row r="3654">
       <c r="A3654" t="n">
-        <v>1.012773568209573e+18</v>
+        <v>1.01277356820957e+18</v>
       </c>
       <c r="B3654" t="inlineStr">
         <is>
@@ -36985,7 +36985,7 @@
     </row>
     <row r="3656">
       <c r="A3656" t="n">
-        <v>1.013139687224524e+18</v>
+        <v>1.01313968722452e+18</v>
       </c>
       <c r="B3656" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
     </row>
     <row r="3657">
       <c r="A3657" t="n">
-        <v>1.013665450431722e+18</v>
+        <v>1.01366545043172e+18</v>
       </c>
       <c r="B3657" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
     </row>
     <row r="3658">
       <c r="A3658" t="n">
-        <v>1.014315592433481e+18</v>
+        <v>1.01431559243348e+18</v>
       </c>
       <c r="B3658" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
     </row>
     <row r="3659">
       <c r="A3659" t="n">
-        <v>1.015694026079624e+18</v>
+        <v>1.01569402607962e+18</v>
       </c>
       <c r="B3659" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
     </row>
     <row r="3660">
       <c r="A3660" t="n">
-        <v>1.015810979898156e+18</v>
+        <v>1.01581097989815e+18</v>
       </c>
       <c r="B3660" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
     </row>
     <row r="3661">
       <c r="A3661" t="n">
-        <v>1.017276039435512e+18</v>
+        <v>1.01727603943551e+18</v>
       </c>
       <c r="B3661" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
     </row>
     <row r="3663">
       <c r="A3663" t="n">
-        <v>1.017470661438263e+18</v>
+        <v>1.01747066143826e+18</v>
       </c>
       <c r="B3663" t="inlineStr">
         <is>
@@ -37065,7 +37065,7 @@
     </row>
     <row r="3664">
       <c r="A3664" t="n">
-        <v>1.019343502417201e+18</v>
+        <v>1.0193435024172e+18</v>
       </c>
       <c r="B3664" t="inlineStr">
         <is>
@@ -37075,7 +37075,7 @@
     </row>
     <row r="3665">
       <c r="A3665" t="n">
-        <v>1.019419410023192e+18</v>
+        <v>1.01941941002319e+18</v>
       </c>
       <c r="B3665" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
     </row>
     <row r="3666">
       <c r="A3666" t="n">
-        <v>1.019689763965622e+18</v>
+        <v>1.01968976396562e+18</v>
       </c>
       <c r="B3666" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
     </row>
     <row r="3667">
       <c r="A3667" t="n">
-        <v>1.019754285046107e+18</v>
+        <v>1.0197542850461e+18</v>
       </c>
       <c r="B3667" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
     </row>
     <row r="3669">
       <c r="A3669" t="n">
-        <v>1.023222920512883e+18</v>
+        <v>1.02322292051288e+18</v>
       </c>
       <c r="B3669" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
     </row>
     <row r="3670">
       <c r="A3670" t="n">
-        <v>1.023797904492884e+18</v>
+        <v>1.02379790449288e+18</v>
       </c>
       <c r="B3670" t="inlineStr">
         <is>
@@ -37145,7 +37145,7 @@
     </row>
     <row r="3672">
       <c r="A3672" t="n">
-        <v>1.024369229956852e+18</v>
+        <v>1.02436922995685e+18</v>
       </c>
       <c r="B3672" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
     </row>
     <row r="3674">
       <c r="A3674" t="n">
-        <v>1.025991914322239e+18</v>
+        <v>1.02599191432223e+18</v>
       </c>
       <c r="B3674" t="inlineStr">
         <is>
@@ -37175,7 +37175,7 @@
     </row>
     <row r="3675">
       <c r="A3675" t="n">
-        <v>1.026024455646066e+18</v>
+        <v>1.02602445564606e+18</v>
       </c>
       <c r="B3675" t="inlineStr">
         <is>
@@ -37185,7 +37185,7 @@
     </row>
     <row r="3676">
       <c r="A3676" t="n">
-        <v>1.029742386212239e+18</v>
+        <v>1.02974238621223e+18</v>
       </c>
       <c r="B3676" t="inlineStr">
         <is>
@@ -37195,7 +37195,7 @@
     </row>
     <row r="3677">
       <c r="A3677" t="n">
-        <v>1.029822458565798e+18</v>
+        <v>1.02982245856579e+18</v>
       </c>
       <c r="B3677" t="inlineStr">
         <is>
@@ -37205,7 +37205,7 @@
     </row>
     <row r="3678">
       <c r="A3678" t="n">
-        <v>1.031686176411017e+18</v>
+        <v>1.03168617641101e+18</v>
       </c>
       <c r="B3678" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
     </row>
     <row r="3679">
       <c r="A3679" t="n">
-        <v>1.032537529387571e+18</v>
+        <v>1.03253752938757e+18</v>
       </c>
       <c r="B3679" t="inlineStr">
         <is>
@@ -37225,7 +37225,7 @@
     </row>
     <row r="3680">
       <c r="A3680" t="n">
-        <v>1.03747809090041e+18</v>
+        <v>1.0374780909004e+18</v>
       </c>
       <c r="B3680" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
     </row>
     <row r="3681">
       <c r="A3681" t="n">
-        <v>1.038392611019734e+18</v>
+        <v>1.03839261101973e+18</v>
       </c>
       <c r="B3681" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
     </row>
     <row r="3682">
       <c r="A3682" t="n">
-        <v>1.039598756645898e+18</v>
+        <v>1.03959875664589e+18</v>
       </c>
       <c r="B3682" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
     </row>
     <row r="3683">
       <c r="A3683" t="n">
-        <v>1.039715644274761e+18</v>
+        <v>1.03971564427476e+18</v>
       </c>
       <c r="B3683" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
     </row>
     <row r="3684">
       <c r="A3684" t="n">
-        <v>1.041075404972857e+18</v>
+        <v>1.04107540497285e+18</v>
       </c>
       <c r="B3684" t="inlineStr">
         <is>
@@ -37275,7 +37275,7 @@
     </row>
     <row r="3685">
       <c r="A3685" t="n">
-        <v>1.041114025229143e+18</v>
+        <v>1.04111402522914e+18</v>
       </c>
       <c r="B3685" t="inlineStr">
         <is>
@@ -37285,7 +37285,7 @@
     </row>
     <row r="3686">
       <c r="A3686" t="n">
-        <v>1.041137199677217e+18</v>
+        <v>1.04113719967721e+18</v>
       </c>
       <c r="B3686" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
     </row>
     <row r="3687">
       <c r="A3687" t="n">
-        <v>1.041437164580855e+18</v>
+        <v>1.04143716458085e+18</v>
       </c>
       <c r="B3687" t="inlineStr">
         <is>
@@ -37305,7 +37305,7 @@
     </row>
     <row r="3688">
       <c r="A3688" t="n">
-        <v>1.041799568427362e+18</v>
+        <v>1.04179956842736e+18</v>
       </c>
       <c r="B3688" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
     </row>
     <row r="3689">
       <c r="A3689" t="n">
-        <v>1.044736522131657e+18</v>
+        <v>1.04473652213165e+18</v>
       </c>
       <c r="B3689" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
     </row>
     <row r="3690">
       <c r="A3690" t="n">
-        <v>1.044852428973542e+18</v>
+        <v>1.04485242897354e+18</v>
       </c>
       <c r="B3690" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
     </row>
     <row r="3691">
       <c r="A3691" t="n">
-        <v>1.045019506030983e+18</v>
+        <v>1.04501950603098e+18</v>
       </c>
       <c r="B3691" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
     </row>
     <row r="3693">
       <c r="A3693" t="n">
-        <v>1.046163825206113e+18</v>
+        <v>1.04616382520611e+18</v>
       </c>
       <c r="B3693" t="inlineStr">
         <is>
@@ -37365,7 +37365,7 @@
     </row>
     <row r="3694">
       <c r="A3694" t="n">
-        <v>1.047188976966508e+18</v>
+        <v>1.0471889769665e+18</v>
       </c>
       <c r="B3694" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
     </row>
     <row r="3695">
       <c r="A3695" t="n">
-        <v>1.047767278598531e+18</v>
+        <v>1.04776727859853e+18</v>
       </c>
       <c r="B3695" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
     </row>
     <row r="3696">
       <c r="A3696" t="n">
-        <v>1.048521451832508e+18</v>
+        <v>1.0485214518325e+18</v>
       </c>
       <c r="B3696" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
     </row>
     <row r="3697">
       <c r="A3697" t="n">
-        <v>1.049349273513953e+18</v>
+        <v>1.04934927351395e+18</v>
       </c>
       <c r="B3697" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
     </row>
     <row r="3698">
       <c r="A3698" t="n">
-        <v>1.055891880110175e+18</v>
+        <v>1.05589188011017e+18</v>
       </c>
       <c r="B3698" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
     </row>
     <row r="3699">
       <c r="A3699" t="n">
-        <v>1.057758444455432e+18</v>
+        <v>1.05775844445543e+18</v>
       </c>
       <c r="B3699" t="inlineStr">
         <is>
@@ -37425,7 +37425,7 @@
     </row>
     <row r="3700">
       <c r="A3700" t="n">
-        <v>1.058601057372269e+18</v>
+        <v>1.05860105737226e+18</v>
       </c>
       <c r="B3700" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
     </row>
     <row r="3702">
       <c r="A3702" t="n">
-        <v>1.060500917625549e+18</v>
+        <v>1.06050091762554e+18</v>
       </c>
       <c r="B3702" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
     </row>
     <row r="3703">
       <c r="A3703" t="n">
-        <v>1.060749074348398e+18</v>
+        <v>1.06074907434839e+18</v>
       </c>
       <c r="B3703" t="inlineStr">
         <is>
@@ -37465,7 +37465,7 @@
     </row>
     <row r="3704">
       <c r="A3704" t="n">
-        <v>1.060816368744694e+18</v>
+        <v>1.06081636874469e+18</v>
       </c>
       <c r="B3704" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
     </row>
     <row r="3705">
       <c r="A3705" t="n">
-        <v>1.061701847421319e+18</v>
+        <v>1.06170184742131e+18</v>
       </c>
       <c r="B3705" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
     </row>
     <row r="3706">
       <c r="A3706" t="n">
-        <v>1.062432355880504e+18</v>
+        <v>1.0624323558805e+18</v>
       </c>
       <c r="B3706" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
     </row>
     <row r="3707">
       <c r="A3707" t="n">
-        <v>1.064233896260917e+18</v>
+        <v>1.06423389626091e+18</v>
       </c>
       <c r="B3707" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
     </row>
     <row r="3708">
       <c r="A3708" t="n">
-        <v>1.064233985284567e+18</v>
+        <v>1.06423398528456e+18</v>
       </c>
       <c r="B3708" t="inlineStr">
         <is>
@@ -37515,7 +37515,7 @@
     </row>
     <row r="3709">
       <c r="A3709" t="n">
-        <v>1.064234285307016e+18</v>
+        <v>1.06423428530701e+18</v>
       </c>
       <c r="B3709" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
     </row>
     <row r="3710">
       <c r="A3710" t="n">
-        <v>1.064601424337833e+18</v>
+        <v>1.06460142433783e+18</v>
       </c>
       <c r="B3710" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
     </row>
     <row r="3711">
       <c r="A3711" t="n">
-        <v>1.066560734683238e+18</v>
+        <v>1.06656073468323e+18</v>
       </c>
       <c r="B3711" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
     </row>
     <row r="3712">
       <c r="A3712" t="n">
-        <v>1.069592839937358e+18</v>
+        <v>1.06959283993735e+18</v>
       </c>
       <c r="B3712" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
     </row>
     <row r="3713">
       <c r="A3713" t="n">
-        <v>1.070267658820346e+18</v>
+        <v>1.07026765882034e+18</v>
       </c>
       <c r="B3713" t="inlineStr">
         <is>
@@ -37565,7 +37565,7 @@
     </row>
     <row r="3714">
       <c r="A3714" t="n">
-        <v>1.070992853311349e+18</v>
+        <v>1.07099285331134e+18</v>
       </c>
       <c r="B3714" t="inlineStr">
         <is>
@@ -37575,7 +37575,7 @@
     </row>
     <row r="3715">
       <c r="A3715" t="n">
-        <v>1.071840517462178e+18</v>
+        <v>1.07184051746217e+18</v>
       </c>
       <c r="B3715" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
     </row>
     <row r="3716">
       <c r="A3716" t="n">
-        <v>1.071842269041716e+18</v>
+        <v>1.07184226904171e+18</v>
       </c>
       <c r="B3716" t="inlineStr">
         <is>
@@ -37595,7 +37595,7 @@
     </row>
     <row r="3717">
       <c r="A3717" t="n">
-        <v>1.072453315346258e+18</v>
+        <v>1.07245331534625e+18</v>
       </c>
       <c r="B3717" t="inlineStr">
         <is>
@@ -37615,7 +37615,7 @@
     </row>
     <row r="3719">
       <c r="A3719" t="n">
-        <v>1.076851341514748e+18</v>
+        <v>1.07685134151474e+18</v>
       </c>
       <c r="B3719" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
     </row>
     <row r="3720">
       <c r="A3720" t="n">
-        <v>1.078045916301166e+18</v>
+        <v>1.07804591630116e+18</v>
       </c>
       <c r="B3720" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
     </row>
     <row r="3721">
       <c r="A3721" t="n">
-        <v>1.079710136457548e+18</v>
+        <v>1.07971013645754e+18</v>
       </c>
       <c r="B3721" t="inlineStr">
         <is>
@@ -37645,7 +37645,7 @@
     </row>
     <row r="3722">
       <c r="A3722" t="n">
-        <v>1.081057515995982e+18</v>
+        <v>1.08105751599598e+18</v>
       </c>
       <c r="B3722" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
     </row>
     <row r="3723">
       <c r="A3723" t="n">
-        <v>1.081782589743346e+18</v>
+        <v>1.08178258974334e+18</v>
       </c>
       <c r="B3723" t="inlineStr">
         <is>
@@ -37665,7 +37665,7 @@
     </row>
     <row r="3724">
       <c r="A3724" t="n">
-        <v>1.081801991934622e+18</v>
+        <v>1.08180199193462e+18</v>
       </c>
       <c r="B3724" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
     </row>
     <row r="3725">
       <c r="A3725" t="n">
-        <v>1.081836661527373e+18</v>
+        <v>1.08183666152737e+18</v>
       </c>
       <c r="B3725" t="inlineStr">
         <is>
@@ -37685,7 +37685,7 @@
     </row>
     <row r="3726">
       <c r="A3726" t="n">
-        <v>1.081850472511605e+18</v>
+        <v>1.0818504725116e+18</v>
       </c>
       <c r="B3726" t="inlineStr">
         <is>
@@ -37705,7 +37705,7 @@
     </row>
     <row r="3728">
       <c r="A3728" t="n">
-        <v>1.081944221845639e+18</v>
+        <v>1.08194422184563e+18</v>
       </c>
       <c r="B3728" t="inlineStr">
         <is>
@@ -37715,7 +37715,7 @@
     </row>
     <row r="3729">
       <c r="A3729" t="n">
-        <v>1.082008971613435e+18</v>
+        <v>1.08200897161343e+18</v>
       </c>
       <c r="B3729" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
     </row>
     <row r="3730">
       <c r="A3730" t="n">
-        <v>1.082045919190017e+18</v>
+        <v>1.08204591919001e+18</v>
       </c>
       <c r="B3730" t="inlineStr">
         <is>
@@ -37735,7 +37735,7 @@
     </row>
     <row r="3731">
       <c r="A3731" t="n">
-        <v>1.082062000885252e+18</v>
+        <v>1.08206200088525e+18</v>
       </c>
       <c r="B3731" t="inlineStr">
         <is>
@@ -37745,7 +37745,7 @@
     </row>
     <row r="3732">
       <c r="A3732" t="n">
-        <v>1.08250519931901e+18</v>
+        <v>1.082505199319e+18</v>
       </c>
       <c r="B3732" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
     </row>
     <row r="3733">
       <c r="A3733" t="n">
-        <v>1.082528042782764e+18</v>
+        <v>1.08252804278276e+18</v>
       </c>
       <c r="B3733" t="inlineStr">
         <is>
@@ -37765,7 +37765,7 @@
     </row>
     <row r="3734">
       <c r="A3734" t="n">
-        <v>1.082637752190026e+18</v>
+        <v>1.08263775219002e+18</v>
       </c>
       <c r="B3734" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
     </row>
     <row r="3735">
       <c r="A3735" t="n">
-        <v>1.082707928601352e+18</v>
+        <v>1.08270792860135e+18</v>
       </c>
       <c r="B3735" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
     </row>
     <row r="3736">
       <c r="A3736" t="n">
-        <v>1.082743378680116e+18</v>
+        <v>1.08274337868011e+18</v>
       </c>
       <c r="B3736" t="inlineStr">
         <is>
@@ -37805,7 +37805,7 @@
     </row>
     <row r="3738">
       <c r="A3738" t="n">
-        <v>1.083150600800999e+18</v>
+        <v>1.08315060080099e+18</v>
       </c>
       <c r="B3738" t="inlineStr">
         <is>
@@ -37815,7 +37815,7 @@
     </row>
     <row r="3739">
       <c r="A3739" t="n">
-        <v>1.083164824066368e+18</v>
+        <v>1.08316482406636e+18</v>
       </c>
       <c r="B3739" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
     </row>
     <row r="3740">
       <c r="A3740" t="n">
-        <v>1.083167486484596e+18</v>
+        <v>1.08316748648459e+18</v>
       </c>
       <c r="B3740" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
     </row>
     <row r="3741">
       <c r="A3741" t="n">
-        <v>1.083189579894978e+18</v>
+        <v>1.08318957989497e+18</v>
       </c>
       <c r="B3741" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
     </row>
     <row r="3742">
       <c r="A3742" t="n">
-        <v>1.083192583393132e+18</v>
+        <v>1.08319258339313e+18</v>
       </c>
       <c r="B3742" t="inlineStr">
         <is>
@@ -37855,7 +37855,7 @@
     </row>
     <row r="3743">
       <c r="A3743" t="n">
-        <v>1.083195883821984e+18</v>
+        <v>1.08319588382198e+18</v>
       </c>
       <c r="B3743" t="inlineStr">
         <is>
@@ -37865,7 +37865,7 @@
     </row>
     <row r="3744">
       <c r="A3744" t="n">
-        <v>1.083200319464454e+18</v>
+        <v>1.08320031946445e+18</v>
       </c>
       <c r="B3744" t="inlineStr">
         <is>
@@ -37875,7 +37875,7 @@
     </row>
     <row r="3745">
       <c r="A3745" t="n">
-        <v>1.085422677045113e+18</v>
+        <v>1.08542267704511e+18</v>
       </c>
       <c r="B3745" t="inlineStr">
         <is>
@@ -37885,7 +37885,7 @@
     </row>
     <row r="3746">
       <c r="A3746" t="n">
-        <v>1.085980850722397e+18</v>
+        <v>1.08598085072239e+18</v>
       </c>
       <c r="B3746" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
     </row>
     <row r="3747">
       <c r="A3747" t="n">
-        <v>1.088324466072195e+18</v>
+        <v>1.08832446607219e+18</v>
       </c>
       <c r="B3747" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
     </row>
     <row r="3748">
       <c r="A3748" t="n">
-        <v>1.090248791063989e+18</v>
+        <v>1.09024879106398e+18</v>
       </c>
       <c r="B3748" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
     </row>
     <row r="3749">
       <c r="A3749" t="n">
-        <v>1.090352877508621e+18</v>
+        <v>1.09035287750862e+18</v>
       </c>
       <c r="B3749" t="inlineStr">
         <is>
@@ -37925,7 +37925,7 @@
     </row>
     <row r="3750">
       <c r="A3750" t="n">
-        <v>1.091064700580258e+18</v>
+        <v>1.09106470058025e+18</v>
       </c>
       <c r="B3750" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
     </row>
     <row r="3751">
       <c r="A3751" t="n">
-        <v>1.091240494665315e+18</v>
+        <v>1.09124049466531e+18</v>
       </c>
       <c r="B3751" t="inlineStr">
         <is>
@@ -37945,7 +37945,7 @@
     </row>
     <row r="3752">
       <c r="A3752" t="n">
-        <v>1.091911652437656e+18</v>
+        <v>1.09191165243765e+18</v>
       </c>
       <c r="B3752" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
     </row>
     <row r="3753">
       <c r="A3753" t="n">
-        <v>1.092484274738522e+18</v>
+        <v>1.09248427473852e+18</v>
       </c>
       <c r="B3753" t="inlineStr">
         <is>
@@ -37965,7 +37965,7 @@
     </row>
     <row r="3754">
       <c r="A3754" t="n">
-        <v>1.092664147810355e+18</v>
+        <v>1.09266414781035e+18</v>
       </c>
       <c r="B3754" t="inlineStr">
         <is>
@@ -37985,7 +37985,7 @@
     </row>
     <row r="3756">
       <c r="A3756" t="n">
-        <v>1.094101643309604e+18</v>
+        <v>1.0941016433096e+18</v>
       </c>
       <c r="B3756" t="inlineStr">
         <is>
@@ -37995,7 +37995,7 @@
     </row>
     <row r="3757">
       <c r="A3757" t="n">
-        <v>1.094161864863115e+18</v>
+        <v>1.09416186486311e+18</v>
       </c>
       <c r="B3757" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
     </row>
     <row r="3758">
       <c r="A3758" t="n">
-        <v>1.094858638998578e+18</v>
+        <v>1.09485863899857e+18</v>
       </c>
       <c r="B3758" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
     </row>
     <row r="3759">
       <c r="A3759" t="n">
-        <v>1.096253412266745e+18</v>
+        <v>1.09625341226674e+18</v>
       </c>
       <c r="B3759" t="inlineStr">
         <is>
@@ -38025,7 +38025,7 @@
     </row>
     <row r="3760">
       <c r="A3760" t="n">
-        <v>1.096254462794274e+18</v>
+        <v>1.09625446279427e+18</v>
       </c>
       <c r="B3760" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
     </row>
     <row r="3761">
       <c r="A3761" t="n">
-        <v>1.096343187701598e+18</v>
+        <v>1.09634318770159e+18</v>
       </c>
       <c r="B3761" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
     </row>
     <row r="3762">
       <c r="A3762" t="n">
-        <v>1.097000570972834e+18</v>
+        <v>1.09700057097283e+18</v>
       </c>
       <c r="B3762" t="inlineStr">
         <is>
@@ -38055,7 +38055,7 @@
     </row>
     <row r="3763">
       <c r="A3763" t="n">
-        <v>1.097080285752834e+18</v>
+        <v>1.09708028575283e+18</v>
       </c>
       <c r="B3763" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
     </row>
     <row r="3764">
       <c r="A3764" t="n">
-        <v>1.099269250287456e+18</v>
+        <v>1.09926925028745e+18</v>
       </c>
       <c r="B3764" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
     </row>
     <row r="3765">
       <c r="A3765" t="n">
-        <v>1.099843055316173e+18</v>
+        <v>1.09984305531617e+18</v>
       </c>
       <c r="B3765" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
     </row>
     <row r="3766">
       <c r="A3766" t="n">
-        <v>1.101389565466381e+18</v>
+        <v>1.10138956546638e+18</v>
       </c>
       <c r="B3766" t="inlineStr">
         <is>
@@ -38095,7 +38095,7 @@
     </row>
     <row r="3767">
       <c r="A3767" t="n">
-        <v>1.101414587177834e+18</v>
+        <v>1.10141458717783e+18</v>
       </c>
       <c r="B3767" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
     </row>
     <row r="3768">
       <c r="A3768" t="n">
-        <v>1.102027763442784e+18</v>
+        <v>1.10202776344278e+18</v>
       </c>
       <c r="B3768" t="inlineStr">
         <is>
@@ -38115,7 +38115,7 @@
     </row>
     <row r="3769">
       <c r="A3769" t="n">
-        <v>1.102097861094448e+18</v>
+        <v>1.10209786109444e+18</v>
       </c>
       <c r="B3769" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
     </row>
     <row r="3770">
       <c r="A3770" t="n">
-        <v>1.106233999402225e+18</v>
+        <v>1.10623399940222e+18</v>
       </c>
       <c r="B3770" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
     </row>
     <row r="3771">
       <c r="A3771" t="n">
-        <v>1.109471978677706e+18</v>
+        <v>1.1094719786777e+18</v>
       </c>
       <c r="B3771" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
     </row>
     <row r="3773">
       <c r="A3773" t="n">
-        <v>1.111375657665761e+18</v>
+        <v>1.11137565766576e+18</v>
       </c>
       <c r="B3773" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
     </row>
     <row r="3774">
       <c r="A3774" t="n">
-        <v>1.111375799671363e+18</v>
+        <v>1.11137579967136e+18</v>
       </c>
       <c r="B3774" t="inlineStr">
         <is>
@@ -38175,7 +38175,7 @@
     </row>
     <row r="3775">
       <c r="A3775" t="n">
-        <v>1.112184806029791e+18</v>
+        <v>1.11218480602979e+18</v>
       </c>
       <c r="B3775" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
     </row>
     <row r="3776">
       <c r="A3776" t="n">
-        <v>1.114451945379863e+18</v>
+        <v>1.11445194537986e+18</v>
       </c>
       <c r="B3776" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
     </row>
     <row r="3777">
       <c r="A3777" t="n">
-        <v>1.118039296876008e+18</v>
+        <v>1.118039296876e+18</v>
       </c>
       <c r="B3777" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
     </row>
     <row r="3778">
       <c r="A3778" t="n">
-        <v>1.120346307789911e+18</v>
+        <v>1.12034630778991e+18</v>
       </c>
       <c r="B3778" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
     </row>
     <row r="3779">
       <c r="A3779" t="n">
-        <v>1.121618673054294e+18</v>
+        <v>1.12161867305429e+18</v>
       </c>
       <c r="B3779" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
     </row>
     <row r="3780">
       <c r="A3780" t="n">
-        <v>1.121630604192127e+18</v>
+        <v>1.12163060419212e+18</v>
       </c>
       <c r="B3780" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
     </row>
     <row r="3781">
       <c r="A3781" t="n">
-        <v>1.121683166264756e+18</v>
+        <v>1.12168316626475e+18</v>
       </c>
       <c r="B3781" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
     </row>
     <row r="3782">
       <c r="A3782" t="n">
-        <v>1.123824405876152e+18</v>
+        <v>1.12382440587615e+18</v>
       </c>
       <c r="B3782" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
     </row>
     <row r="3783">
       <c r="A3783" t="n">
-        <v>1.123849108196778e+18</v>
+        <v>1.12384910819677e+18</v>
       </c>
       <c r="B3783" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
     </row>
     <row r="3784">
       <c r="A3784" t="n">
-        <v>1.1251758450547e+18</v>
+        <v>1.12517584505469e+18</v>
       </c>
       <c r="B3784" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
     </row>
     <row r="3785">
       <c r="A3785" t="n">
-        <v>1.127476197551403e+18</v>
+        <v>1.1274761975514e+18</v>
       </c>
       <c r="B3785" t="inlineStr">
         <is>
@@ -38285,7 +38285,7 @@
     </row>
     <row r="3786">
       <c r="A3786" t="n">
-        <v>1.12768930451441e+18</v>
+        <v>1.1276893045144e+18</v>
       </c>
       <c r="B3786" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
     </row>
     <row r="3788">
       <c r="A3788" t="n">
-        <v>1.129837803833372e+18</v>
+        <v>1.12983780383337e+18</v>
       </c>
       <c r="B3788" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
     </row>
     <row r="3789">
       <c r="A3789" t="n">
-        <v>1.130458985314515e+18</v>
+        <v>1.13045898531451e+18</v>
       </c>
       <c r="B3789" t="inlineStr">
         <is>
@@ -38325,7 +38325,7 @@
     </row>
     <row r="3790">
       <c r="A3790" t="n">
-        <v>1.130813313040983e+18</v>
+        <v>1.13081331304098e+18</v>
       </c>
       <c r="B3790" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
     </row>
     <row r="3791">
       <c r="A3791" t="n">
-        <v>1.130914079931391e+18</v>
+        <v>1.13091407993139e+18</v>
       </c>
       <c r="B3791" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
     </row>
     <row r="3793">
       <c r="A3793" t="n">
-        <v>1.131743279891731e+18</v>
+        <v>1.13174327989173e+18</v>
       </c>
       <c r="B3793" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
     </row>
     <row r="3794">
       <c r="A3794" t="n">
-        <v>1.132330455776007e+18</v>
+        <v>1.132330455776e+18</v>
       </c>
       <c r="B3794" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
     </row>
     <row r="3795">
       <c r="A3795" t="n">
-        <v>1.132462396232322e+18</v>
+        <v>1.13246239623232e+18</v>
       </c>
       <c r="B3795" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
     </row>
     <row r="3796">
       <c r="A3796" t="n">
-        <v>1.132472843898514e+18</v>
+        <v>1.13247284389851e+18</v>
       </c>
       <c r="B3796" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
     </row>
     <row r="3797">
       <c r="A3797" t="n">
-        <v>1.132475198716467e+18</v>
+        <v>1.13247519871646e+18</v>
       </c>
       <c r="B3797" t="inlineStr">
         <is>
@@ -38405,7 +38405,7 @@
     </row>
     <row r="3798">
       <c r="A3798" t="n">
-        <v>1.133895042172451e+18</v>
+        <v>1.13389504217245e+18</v>
       </c>
       <c r="B3798" t="inlineStr">
         <is>
@@ -38415,7 +38415,7 @@
     </row>
     <row r="3799">
       <c r="A3799" t="n">
-        <v>1.134591358431601e+18</v>
+        <v>1.1345913584316e+18</v>
       </c>
       <c r="B3799" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
     </row>
     <row r="3800">
       <c r="A3800" t="n">
-        <v>1.134619103506374e+18</v>
+        <v>1.13461910350637e+18</v>
       </c>
       <c r="B3800" t="inlineStr">
         <is>
@@ -38435,7 +38435,7 @@
     </row>
     <row r="3801">
       <c r="A3801" t="n">
-        <v>1.134657937752767e+18</v>
+        <v>1.13465793775276e+18</v>
       </c>
       <c r="B3801" t="inlineStr">
         <is>
@@ -38445,7 +38445,7 @@
     </row>
     <row r="3802">
       <c r="A3802" t="n">
-        <v>1.137422529920503e+18</v>
+        <v>1.1374225299205e+18</v>
       </c>
       <c r="B3802" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
     </row>
     <row r="3803">
       <c r="A3803" t="n">
-        <v>1.137512158087524e+18</v>
+        <v>1.13751215808752e+18</v>
       </c>
       <c r="B3803" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
     </row>
     <row r="3804">
       <c r="A3804" t="n">
-        <v>1.137532117661106e+18</v>
+        <v>1.1375321176611e+18</v>
       </c>
       <c r="B3804" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
     </row>
     <row r="3805">
       <c r="A3805" t="n">
-        <v>1.137583007938149e+18</v>
+        <v>1.13758300793814e+18</v>
       </c>
       <c r="B3805" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
     </row>
     <row r="3806">
       <c r="A3806" t="n">
-        <v>1.138221549400102e+18</v>
+        <v>1.1382215494001e+18</v>
       </c>
       <c r="B3806" t="inlineStr">
         <is>
@@ -38495,7 +38495,7 @@
     </row>
     <row r="3807">
       <c r="A3807" t="n">
-        <v>1.139111054198854e+18</v>
+        <v>1.13911105419885e+18</v>
       </c>
       <c r="B3807" t="inlineStr">
         <is>
@@ -38505,7 +38505,7 @@
     </row>
     <row r="3808">
       <c r="A3808" t="n">
-        <v>1.139920748469906e+18</v>
+        <v>1.1399207484699e+18</v>
       </c>
       <c r="B3808" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
     </row>
     <row r="3809">
       <c r="A3809" t="n">
-        <v>1.142083710122514e+18</v>
+        <v>1.14208371012251e+18</v>
       </c>
       <c r="B3809" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
     </row>
     <row r="3810">
       <c r="A3810" t="n">
-        <v>1.142089025375812e+18</v>
+        <v>1.14208902537581e+18</v>
       </c>
       <c r="B3810" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
     </row>
     <row r="3811">
       <c r="A3811" t="n">
-        <v>1.143323386128298e+18</v>
+        <v>1.14332338612829e+18</v>
       </c>
       <c r="B3811" t="inlineStr">
         <is>
@@ -38545,7 +38545,7 @@
     </row>
     <row r="3812">
       <c r="A3812" t="n">
-        <v>1.144769499884872e+18</v>
+        <v>1.14476949988487e+18</v>
       </c>
       <c r="B3812" t="inlineStr">
         <is>
@@ -38555,7 +38555,7 @@
     </row>
     <row r="3813">
       <c r="A3813" t="n">
-        <v>1.144820057303944e+18</v>
+        <v>1.14482005730394e+18</v>
       </c>
       <c r="B3813" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
     </row>
     <row r="3814">
       <c r="A3814" t="n">
-        <v>1.145454008202681e+18</v>
+        <v>1.14545400820268e+18</v>
       </c>
       <c r="B3814" t="inlineStr">
         <is>
@@ -38575,7 +38575,7 @@
     </row>
     <row r="3815">
       <c r="A3815" t="n">
-        <v>1.146361789967272e+18</v>
+        <v>1.14636178996727e+18</v>
       </c>
       <c r="B3815" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
     </row>
     <row r="3816">
       <c r="A3816" t="n">
-        <v>1.147089723915088e+18</v>
+        <v>1.14708972391508e+18</v>
       </c>
       <c r="B3816" t="inlineStr">
         <is>
@@ -38595,7 +38595,7 @@
     </row>
     <row r="3817">
       <c r="A3817" t="n">
-        <v>1.150536014876064e+18</v>
+        <v>1.15053601487606e+18</v>
       </c>
       <c r="B3817" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
     </row>
     <row r="3818">
       <c r="A3818" t="n">
-        <v>1.150659979810932e+18</v>
+        <v>1.15065997981093e+18</v>
       </c>
       <c r="B3818" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
     </row>
     <row r="3819">
       <c r="A3819" t="n">
-        <v>1.150693221960769e+18</v>
+        <v>1.15069322196076e+18</v>
       </c>
       <c r="B3819" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
     </row>
     <row r="3820">
       <c r="A3820" t="n">
-        <v>1.151214400743031e+18</v>
+        <v>1.15121440074303e+18</v>
       </c>
       <c r="B3820" t="inlineStr">
         <is>
@@ -38635,7 +38635,7 @@
     </row>
     <row r="3821">
       <c r="A3821" t="n">
-        <v>1.151256841867577e+18</v>
+        <v>1.15125684186757e+18</v>
       </c>
       <c r="B3821" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
     </row>
     <row r="3822">
       <c r="A3822" t="n">
-        <v>1.152908326909498e+18</v>
+        <v>1.15290832690949e+18</v>
       </c>
       <c r="B3822" t="inlineStr">
         <is>
@@ -38655,7 +38655,7 @@
     </row>
     <row r="3823">
       <c r="A3823" t="n">
-        <v>1.153088923668981e+18</v>
+        <v>1.15308892366898e+18</v>
       </c>
       <c r="B3823" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
     </row>
     <row r="3824">
       <c r="A3824" t="n">
-        <v>1.153292324819812e+18</v>
+        <v>1.15329232481981e+18</v>
       </c>
       <c r="B3824" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
     </row>
     <row r="3825">
       <c r="A3825" t="n">
-        <v>1.153328520451268e+18</v>
+        <v>1.15332852045126e+18</v>
       </c>
       <c r="B3825" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
     </row>
     <row r="3826">
       <c r="A3826" t="n">
-        <v>1.153561864137886e+18</v>
+        <v>1.15356186413788e+18</v>
       </c>
       <c r="B3826" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
     </row>
     <row r="3828">
       <c r="A3828" t="n">
-        <v>1.153661627907822e+18</v>
+        <v>1.15366162790782e+18</v>
       </c>
       <c r="B3828" t="inlineStr">
         <is>
@@ -38715,7 +38715,7 @@
     </row>
     <row r="3829">
       <c r="A3829" t="n">
-        <v>1.154984093178396e+18</v>
+        <v>1.15498409317839e+18</v>
       </c>
       <c r="B3829" t="inlineStr">
         <is>
@@ -38725,7 +38725,7 @@
     </row>
     <row r="3830">
       <c r="A3830" t="n">
-        <v>1.155537834260194e+18</v>
+        <v>1.15553783426019e+18</v>
       </c>
       <c r="B3830" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
     </row>
     <row r="3831">
       <c r="A3831" t="n">
-        <v>1.156383333179555e+18</v>
+        <v>1.15638333317955e+18</v>
       </c>
       <c r="B3831" t="inlineStr">
         <is>
@@ -38745,7 +38745,7 @@
     </row>
     <row r="3832">
       <c r="A3832" t="n">
-        <v>1.156624708973282e+18</v>
+        <v>1.15662470897328e+18</v>
       </c>
       <c r="B3832" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
     </row>
     <row r="3833">
       <c r="A3833" t="n">
-        <v>1.157736998581143e+18</v>
+        <v>1.15773699858114e+18</v>
       </c>
       <c r="B3833" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
     </row>
     <row r="3834">
       <c r="A3834" t="n">
-        <v>1.158567268494022e+18</v>
+        <v>1.15856726849402e+18</v>
       </c>
       <c r="B3834" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
     </row>
     <row r="3835">
       <c r="A3835" t="n">
-        <v>1.158787742863795e+18</v>
+        <v>1.15878774286379e+18</v>
       </c>
       <c r="B3835" t="inlineStr">
         <is>
@@ -38785,7 +38785,7 @@
     </row>
     <row r="3836">
       <c r="A3836" t="n">
-        <v>1.158886407462668e+18</v>
+        <v>1.15888640746266e+18</v>
       </c>
       <c r="B3836" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
     </row>
     <row r="3837">
       <c r="A3837" t="n">
-        <v>1.160135942301097e+18</v>
+        <v>1.16013594230109e+18</v>
       </c>
       <c r="B3837" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
     </row>
     <row r="3838">
       <c r="A3838" t="n">
-        <v>1.160883771829172e+18</v>
+        <v>1.16088377182917e+18</v>
       </c>
       <c r="B3838" t="inlineStr">
         <is>
@@ -38815,7 +38815,7 @@
     </row>
     <row r="3839">
       <c r="A3839" t="n">
-        <v>1.161470577034978e+18</v>
+        <v>1.16147057703497e+18</v>
       </c>
       <c r="B3839" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
     </row>
     <row r="3840">
       <c r="A3840" t="n">
-        <v>1.161491963186899e+18</v>
+        <v>1.16149196318689e+18</v>
       </c>
       <c r="B3840" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
     </row>
     <row r="3841">
       <c r="A3841" t="n">
-        <v>1.162151146687341e+18</v>
+        <v>1.16215114668734e+18</v>
       </c>
       <c r="B3841" t="inlineStr">
         <is>
@@ -38845,7 +38845,7 @@
     </row>
     <row r="3842">
       <c r="A3842" t="n">
-        <v>1.162161409312531e+18</v>
+        <v>1.16216140931253e+18</v>
       </c>
       <c r="B3842" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
     </row>
     <row r="3843">
       <c r="A3843" t="n">
-        <v>1.163616084966174e+18</v>
+        <v>1.16361608496617e+18</v>
       </c>
       <c r="B3843" t="inlineStr">
         <is>
@@ -38865,7 +38865,7 @@
     </row>
     <row r="3844">
       <c r="A3844" t="n">
-        <v>1.164307878395843e+18</v>
+        <v>1.16430787839584e+18</v>
       </c>
       <c r="B3844" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
     </row>
     <row r="3845">
       <c r="A3845" t="n">
-        <v>1.164550474239108e+18</v>
+        <v>1.1645504742391e+18</v>
       </c>
       <c r="B3845" t="inlineStr">
         <is>
@@ -38885,7 +38885,7 @@
     </row>
     <row r="3846">
       <c r="A3846" t="n">
-        <v>1.164991785999258e+18</v>
+        <v>1.16499178599925e+18</v>
       </c>
       <c r="B3846" t="inlineStr">
         <is>
@@ -38895,7 +38895,7 @@
     </row>
     <row r="3847">
       <c r="A3847" t="n">
-        <v>1.165298684137855e+18</v>
+        <v>1.16529868413785e+18</v>
       </c>
       <c r="B3847" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
     </row>
     <row r="3848">
       <c r="A3848" t="n">
-        <v>1.166459453063847e+18</v>
+        <v>1.16645945306384e+18</v>
       </c>
       <c r="B3848" t="inlineStr">
         <is>
@@ -38915,7 +38915,7 @@
     </row>
     <row r="3849">
       <c r="A3849" t="n">
-        <v>1.167105591327894e+18</v>
+        <v>1.16710559132789e+18</v>
       </c>
       <c r="B3849" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
     </row>
     <row r="3851">
       <c r="A3851" t="n">
-        <v>1.167511692059174e+18</v>
+        <v>1.16751169205917e+18</v>
       </c>
       <c r="B3851" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
     </row>
     <row r="3852">
       <c r="A3852" t="n">
-        <v>1.168928145587407e+18</v>
+        <v>1.1689281455874e+18</v>
       </c>
       <c r="B3852" t="inlineStr">
         <is>
@@ -38955,7 +38955,7 @@
     </row>
     <row r="3853">
       <c r="A3853" t="n">
-        <v>1.169576678701047e+18</v>
+        <v>1.16957667870104e+18</v>
       </c>
       <c r="B3853" t="inlineStr">
         <is>
@@ -38965,7 +38965,7 @@
     </row>
     <row r="3854">
       <c r="A3854" t="n">
-        <v>1.170172411700742e+18</v>
+        <v>1.17017241170074e+18</v>
       </c>
       <c r="B3854" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
     </row>
     <row r="3856">
       <c r="A3856" t="n">
-        <v>1.170915516338402e+18</v>
+        <v>1.1709155163384e+18</v>
       </c>
       <c r="B3856" t="inlineStr">
         <is>
@@ -38995,7 +38995,7 @@
     </row>
     <row r="3857">
       <c r="A3857" t="n">
-        <v>1.171157160109121e+18</v>
+        <v>1.17115716010912e+18</v>
       </c>
       <c r="B3857" t="inlineStr">
         <is>
@@ -39005,7 +39005,7 @@
     </row>
     <row r="3858">
       <c r="A3858" t="n">
-        <v>1.171774251156731e+18</v>
+        <v>1.17177425115673e+18</v>
       </c>
       <c r="B3858" t="inlineStr">
         <is>
@@ -39015,7 +39015,7 @@
     </row>
     <row r="3859">
       <c r="A3859" t="n">
-        <v>1.172384970978697e+18</v>
+        <v>1.17238497097869e+18</v>
       </c>
       <c r="B3859" t="inlineStr">
         <is>
@@ -39025,7 +39025,7 @@
     </row>
     <row r="3860">
       <c r="A3860" t="n">
-        <v>1.172390111444585e+18</v>
+        <v>1.17239011144458e+18</v>
       </c>
       <c r="B3860" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
     </row>
     <row r="3861">
       <c r="A3861" t="n">
-        <v>1.173210313314681e+18</v>
+        <v>1.17321031331468e+18</v>
       </c>
       <c r="B3861" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
     </row>
     <row r="3862">
       <c r="A3862" t="n">
-        <v>1.173895100893622e+18</v>
+        <v>1.17389510089362e+18</v>
       </c>
       <c r="B3862" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
     </row>
     <row r="3863">
       <c r="A3863" t="n">
-        <v>1.174071927947493e+18</v>
+        <v>1.17407192794749e+18</v>
       </c>
       <c r="B3863" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
     </row>
     <row r="3864">
       <c r="A3864" t="n">
-        <v>1.174086791938177e+18</v>
+        <v>1.17408679193817e+18</v>
       </c>
       <c r="B3864" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
     </row>
     <row r="3865">
       <c r="A3865" t="n">
-        <v>1.174111803293997e+18</v>
+        <v>1.17411180329399e+18</v>
       </c>
       <c r="B3865" t="inlineStr">
         <is>
@@ -39085,7 +39085,7 @@
     </row>
     <row r="3866">
       <c r="A3866" t="n">
-        <v>1.174727459736801e+18</v>
+        <v>1.1747274597368e+18</v>
       </c>
       <c r="B3866" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
     </row>
     <row r="3867">
       <c r="A3867" t="n">
-        <v>1.174766969992277e+18</v>
+        <v>1.17476696999227e+18</v>
       </c>
       <c r="B3867" t="inlineStr">
         <is>
@@ -39105,7 +39105,7 @@
     </row>
     <row r="3868">
       <c r="A3868" t="n">
-        <v>1.175805398133727e+18</v>
+        <v>1.17580539813372e+18</v>
       </c>
       <c r="B3868" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
     </row>
     <row r="3869">
       <c r="A3869" t="n">
-        <v>1.176075837593802e+18</v>
+        <v>1.1760758375938e+18</v>
       </c>
       <c r="B3869" t="inlineStr">
         <is>
@@ -39125,7 +39125,7 @@
     </row>
     <row r="3870">
       <c r="A3870" t="n">
-        <v>1.1765704417213e+18</v>
+        <v>1.17657044172129e+18</v>
       </c>
       <c r="B3870" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
     </row>
     <row r="3871">
       <c r="A3871" t="n">
-        <v>1.176692778285089e+18</v>
+        <v>1.17669277828508e+18</v>
       </c>
       <c r="B3871" t="inlineStr">
         <is>
@@ -39145,7 +39145,7 @@
     </row>
     <row r="3872">
       <c r="A3872" t="n">
-        <v>1.17731727509995e+18</v>
+        <v>1.17731727509994e+18</v>
       </c>
       <c r="B3872" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
     </row>
     <row r="3873">
       <c r="A3873" t="n">
-        <v>1.177358346129718e+18</v>
+        <v>1.17735834612971e+18</v>
       </c>
       <c r="B3873" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
     </row>
     <row r="3874">
       <c r="A3874" t="n">
-        <v>1.17757270197516e+18</v>
+        <v>1.17757270197515e+18</v>
       </c>
       <c r="B3874" t="inlineStr">
         <is>
@@ -39175,7 +39175,7 @@
     </row>
     <row r="3875">
       <c r="A3875" t="n">
-        <v>1.178319193276728e+18</v>
+        <v>1.17831919327672e+18</v>
       </c>
       <c r="B3875" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
     </row>
     <row r="3876">
       <c r="A3876" t="n">
-        <v>1.179791295611718e+18</v>
+        <v>1.17979129561171e+18</v>
       </c>
       <c r="B3876" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
     </row>
     <row r="3877">
       <c r="A3877" t="n">
-        <v>1.179828492988163e+18</v>
+        <v>1.17982849298816e+18</v>
       </c>
       <c r="B3877" t="inlineStr">
         <is>
@@ -39205,7 +39205,7 @@
     </row>
     <row r="3878">
       <c r="A3878" t="n">
-        <v>1.179833565651384e+18</v>
+        <v>1.17983356565138e+18</v>
       </c>
       <c r="B3878" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
     </row>
     <row r="3880">
       <c r="A3880" t="n">
-        <v>1.180532127913798e+18</v>
+        <v>1.18053212791379e+18</v>
       </c>
       <c r="B3880" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
     </row>
     <row r="3881">
       <c r="A3881" t="n">
-        <v>1.181248128678088e+18</v>
+        <v>1.18124812867808e+18</v>
       </c>
       <c r="B3881" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
     </row>
     <row r="3882">
       <c r="A3882" t="n">
-        <v>1.181977480943764e+18</v>
+        <v>1.18197748094376e+18</v>
       </c>
       <c r="B3882" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
     </row>
     <row r="3883">
       <c r="A3883" t="n">
-        <v>1.182324061112607e+18</v>
+        <v>1.1823240611126e+18</v>
       </c>
       <c r="B3883" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
     </row>
     <row r="3884">
       <c r="A3884" t="n">
-        <v>1.18321508333677e+18</v>
+        <v>1.18321508333676e+18</v>
       </c>
       <c r="B3884" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
     </row>
     <row r="3885">
       <c r="A3885" t="n">
-        <v>1.183216652418909e+18</v>
+        <v>1.1832166524189e+18</v>
       </c>
       <c r="B3885" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
     </row>
     <row r="3886">
       <c r="A3886" t="n">
-        <v>1.183290488031366e+18</v>
+        <v>1.18329048803136e+18</v>
       </c>
       <c r="B3886" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
     </row>
     <row r="3887">
       <c r="A3887" t="n">
-        <v>1.183851436916787e+18</v>
+        <v>1.18385143691678e+18</v>
       </c>
       <c r="B3887" t="inlineStr">
         <is>
@@ -39305,7 +39305,7 @@
     </row>
     <row r="3888">
       <c r="A3888" t="n">
-        <v>1.184033492199766e+18</v>
+        <v>1.18403349219976e+18</v>
       </c>
       <c r="B3888" t="inlineStr">
         <is>
@@ -39325,7 +39325,7 @@
     </row>
     <row r="3890">
       <c r="A3890" t="n">
-        <v>1.184034130445634e+18</v>
+        <v>1.18403413044563e+18</v>
       </c>
       <c r="B3890" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
     </row>
     <row r="3891">
       <c r="A3891" t="n">
-        <v>1.184034309834446e+18</v>
+        <v>1.18403430983444e+18</v>
       </c>
       <c r="B3891" t="inlineStr">
         <is>
@@ -39355,7 +39355,7 @@
     </row>
     <row r="3893">
       <c r="A3893" t="n">
-        <v>1.184125946161402e+18</v>
+        <v>1.1841259461614e+18</v>
       </c>
       <c r="B3893" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
     </row>
     <row r="3894">
       <c r="A3894" t="n">
-        <v>1.185955700111923e+18</v>
+        <v>1.18595570011192e+18</v>
       </c>
       <c r="B3894" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
     </row>
     <row r="3895">
       <c r="A3895" t="n">
-        <v>1.186000239704987e+18</v>
+        <v>1.18600023970498e+18</v>
       </c>
       <c r="B3895" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
     </row>
     <row r="3896">
       <c r="A3896" t="n">
-        <v>1.186174929177281e+18</v>
+        <v>1.18617492917728e+18</v>
       </c>
       <c r="B3896" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
     </row>
     <row r="3897">
       <c r="A3897" t="n">
-        <v>1.186756933550664e+18</v>
+        <v>1.18675693355066e+18</v>
       </c>
       <c r="B3897" t="inlineStr">
         <is>
@@ -39405,7 +39405,7 @@
     </row>
     <row r="3898">
       <c r="A3898" t="n">
-        <v>1.187018269748286e+18</v>
+        <v>1.18701826974828e+18</v>
       </c>
       <c r="B3898" t="inlineStr">
         <is>
@@ -39415,7 +39415,7 @@
     </row>
     <row r="3899">
       <c r="A3899" t="n">
-        <v>1.187037085429537e+18</v>
+        <v>1.18703708542953e+18</v>
       </c>
       <c r="B3899" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
     </row>
     <row r="3900">
       <c r="A3900" t="n">
-        <v>1.187606375730222e+18</v>
+        <v>1.18760637573022e+18</v>
       </c>
       <c r="B3900" t="inlineStr">
         <is>
@@ -39435,7 +39435,7 @@
     </row>
     <row r="3901">
       <c r="A3901" t="n">
-        <v>1.188332013592561e+18</v>
+        <v>1.18833201359256e+18</v>
       </c>
       <c r="B3901" t="inlineStr">
         <is>
@@ -39445,7 +39445,7 @@
     </row>
     <row r="3902">
       <c r="A3902" t="n">
-        <v>1.188490496820544e+18</v>
+        <v>1.18849049682054e+18</v>
       </c>
       <c r="B3902" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
     </row>
     <row r="3903">
       <c r="A3903" t="n">
-        <v>1.188541596709049e+18</v>
+        <v>1.18854159670904e+18</v>
       </c>
       <c r="B3903" t="inlineStr">
         <is>
@@ -39465,7 +39465,7 @@
     </row>
     <row r="3904">
       <c r="A3904" t="n">
-        <v>1.188921729642029e+18</v>
+        <v>1.18892172964202e+18</v>
       </c>
       <c r="B3904" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
     </row>
     <row r="3905">
       <c r="A3905" t="n">
-        <v>1.191140373488716e+18</v>
+        <v>1.19114037348871e+18</v>
       </c>
       <c r="B3905" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
     </row>
     <row r="3906">
       <c r="A3906" t="n">
-        <v>1.19122371011939e+18</v>
+        <v>1.19122371011938e+18</v>
       </c>
       <c r="B3906" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
     </row>
     <row r="3907">
       <c r="A3907" t="n">
-        <v>1.19175951222585e+18</v>
+        <v>1.19175951222584e+18</v>
       </c>
       <c r="B3907" t="inlineStr">
         <is>
@@ -39505,7 +39505,7 @@
     </row>
     <row r="3908">
       <c r="A3908" t="n">
-        <v>1.1920979695516e+18</v>
+        <v>1.19209796955159e+18</v>
       </c>
       <c r="B3908" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
     </row>
     <row r="3909">
       <c r="A3909" t="n">
-        <v>1.192880167981098e+18</v>
+        <v>1.19288016798109e+18</v>
       </c>
       <c r="B3909" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
     </row>
     <row r="3910">
       <c r="A3910" t="n">
-        <v>1.192889477552185e+18</v>
+        <v>1.19288947755218e+18</v>
       </c>
       <c r="B3910" t="inlineStr">
         <is>
@@ -39535,7 +39535,7 @@
     </row>
     <row r="3911">
       <c r="A3911" t="n">
-        <v>1.193257357373266e+18</v>
+        <v>1.19325735737326e+18</v>
       </c>
       <c r="B3911" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
     </row>
     <row r="3912">
       <c r="A3912" t="n">
-        <v>1.193257492983742e+18</v>
+        <v>1.19325749298374e+18</v>
       </c>
       <c r="B3912" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
     </row>
     <row r="3913">
       <c r="A3913" t="n">
-        <v>1.193514154158136e+18</v>
+        <v>1.19351415415813e+18</v>
       </c>
       <c r="B3913" t="inlineStr">
         <is>
@@ -39565,7 +39565,7 @@
     </row>
     <row r="3914">
       <c r="A3914" t="n">
-        <v>1.194024484587037e+18</v>
+        <v>1.19402448458703e+18</v>
       </c>
       <c r="B3914" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
     </row>
     <row r="3915">
       <c r="A3915" t="n">
-        <v>1.195452542421248e+18</v>
+        <v>1.19545254242124e+18</v>
       </c>
       <c r="B3915" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
     </row>
     <row r="3916">
       <c r="A3916" t="n">
-        <v>1.195639634080699e+18</v>
+        <v>1.19563963408069e+18</v>
       </c>
       <c r="B3916" t="inlineStr">
         <is>
@@ -39595,7 +39595,7 @@
     </row>
     <row r="3917">
       <c r="A3917" t="n">
-        <v>1.196320828976168e+18</v>
+        <v>1.19632082897616e+18</v>
       </c>
       <c r="B3917" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
     </row>
     <row r="3919">
       <c r="A3919" t="n">
-        <v>1.197187227810604e+18</v>
+        <v>1.1971872278106e+18</v>
       </c>
       <c r="B3919" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
     </row>
     <row r="3921">
       <c r="A3921" t="n">
-        <v>1.200101814443486e+18</v>
+        <v>1.20010181444348e+18</v>
       </c>
       <c r="B3921" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
     </row>
     <row r="3922">
       <c r="A3922" t="n">
-        <v>1.200558560203143e+18</v>
+        <v>1.20055856020314e+18</v>
       </c>
       <c r="B3922" t="inlineStr">
         <is>
@@ -39655,7 +39655,7 @@
     </row>
     <row r="3923">
       <c r="A3923" t="n">
-        <v>1.200615717667613e+18</v>
+        <v>1.20061571766761e+18</v>
       </c>
       <c r="B3923" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
     </row>
     <row r="3924">
       <c r="A3924" t="n">
-        <v>1.200682916802306e+18</v>
+        <v>1.2006829168023e+18</v>
       </c>
       <c r="B3924" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
     </row>
     <row r="3925">
       <c r="A3925" t="n">
-        <v>1.200772759096315e+18</v>
+        <v>1.20077275909631e+18</v>
       </c>
       <c r="B3925" t="inlineStr">
         <is>
@@ -39685,7 +39685,7 @@
     </row>
     <row r="3926">
       <c r="A3926" t="n">
-        <v>1.200781916716587e+18</v>
+        <v>1.20078191671658e+18</v>
       </c>
       <c r="B3926" t="inlineStr">
         <is>
@@ -39695,7 +39695,7 @@
     </row>
     <row r="3927">
       <c r="A3927" t="n">
-        <v>1.200785213321143e+18</v>
+        <v>1.20078521332114e+18</v>
       </c>
       <c r="B3927" t="inlineStr">
         <is>
@@ -39705,7 +39705,7 @@
     </row>
     <row r="3928">
       <c r="A3928" t="n">
-        <v>1.200788826023067e+18</v>
+        <v>1.20078882602306e+18</v>
       </c>
       <c r="B3928" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
     </row>
     <row r="3929">
       <c r="A3929" t="n">
-        <v>1.200794038011521e+18</v>
+        <v>1.20079403801152e+18</v>
       </c>
       <c r="B3929" t="inlineStr">
         <is>
@@ -39725,7 +39725,7 @@
     </row>
     <row r="3930">
       <c r="A3930" t="n">
-        <v>1.200797525294534e+18</v>
+        <v>1.20079752529453e+18</v>
       </c>
       <c r="B3930" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
     </row>
     <row r="3931">
       <c r="A3931" t="n">
-        <v>1.200801143105726e+18</v>
+        <v>1.20080114310572e+18</v>
       </c>
       <c r="B3931" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
     </row>
     <row r="3932">
       <c r="A3932" t="n">
-        <v>1.200805052390141e+18</v>
+        <v>1.20080505239014e+18</v>
       </c>
       <c r="B3932" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
     </row>
     <row r="3933">
       <c r="A3933" t="n">
-        <v>1.201461392070704e+18</v>
+        <v>1.2014613920707e+18</v>
       </c>
       <c r="B3933" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
     </row>
     <row r="3934">
       <c r="A3934" t="n">
-        <v>1.201468090359628e+18</v>
+        <v>1.20146809035962e+18</v>
       </c>
       <c r="B3934" t="inlineStr">
         <is>
@@ -39775,7 +39775,7 @@
     </row>
     <row r="3935">
       <c r="A3935" t="n">
-        <v>1.201470499246665e+18</v>
+        <v>1.20147049924666e+18</v>
       </c>
       <c r="B3935" t="inlineStr">
         <is>
@@ -39785,7 +39785,7 @@
     </row>
     <row r="3936">
       <c r="A3936" t="n">
-        <v>1.201472718868094e+18</v>
+        <v>1.20147271886809e+18</v>
       </c>
       <c r="B3936" t="inlineStr">
         <is>
@@ -39795,7 +39795,7 @@
     </row>
     <row r="3937">
       <c r="A3937" t="n">
-        <v>1.202154724497484e+18</v>
+        <v>1.20215472449748e+18</v>
       </c>
       <c r="B3937" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
     </row>
     <row r="3938">
       <c r="A3938" t="n">
-        <v>1.202744765452232e+18</v>
+        <v>1.20274476545223e+18</v>
       </c>
       <c r="B3938" t="inlineStr">
         <is>
@@ -39815,7 +39815,7 @@
     </row>
     <row r="3939">
       <c r="A3939" t="n">
-        <v>1.203309807404674e+18</v>
+        <v>1.20330980740467e+18</v>
       </c>
       <c r="B3939" t="inlineStr">
         <is>
@@ -39825,7 +39825,7 @@
     </row>
     <row r="3940">
       <c r="A3940" t="n">
-        <v>1.203520354229688e+18</v>
+        <v>1.20352035422968e+18</v>
       </c>
       <c r="B3940" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
     </row>
     <row r="3941">
       <c r="A3941" t="n">
-        <v>1.203717263660262e+18</v>
+        <v>1.20371726366026e+18</v>
       </c>
       <c r="B3941" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
     </row>
     <row r="3942">
       <c r="A3942" t="n">
-        <v>1.206986577823064e+18</v>
+        <v>1.20698657782306e+18</v>
       </c>
       <c r="B3942" t="inlineStr">
         <is>
@@ -39855,7 +39855,7 @@
     </row>
     <row r="3943">
       <c r="A3943" t="n">
-        <v>1.207121676639861e+18</v>
+        <v>1.20712167663986e+18</v>
       </c>
       <c r="B3943" t="inlineStr">
         <is>
@@ -39865,7 +39865,7 @@
     </row>
     <row r="3944">
       <c r="A3944" t="n">
-        <v>1.207373172962681e+18</v>
+        <v>1.20737317296268e+18</v>
       </c>
       <c r="B3944" t="inlineStr">
         <is>
@@ -39875,7 +39875,7 @@
     </row>
     <row r="3945">
       <c r="A3945" t="n">
-        <v>1.208534287187341e+18</v>
+        <v>1.20853428718734e+18</v>
       </c>
       <c r="B3945" t="inlineStr">
         <is>
@@ -39885,7 +39885,7 @@
     </row>
     <row r="3946">
       <c r="A3946" t="n">
-        <v>1.208670535746265e+18</v>
+        <v>1.20867053574626e+18</v>
       </c>
       <c r="B3946" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
     </row>
     <row r="3947">
       <c r="A3947" t="n">
-        <v>1.209657485270342e+18</v>
+        <v>1.20965748527034e+18</v>
       </c>
       <c r="B3947" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
     </row>
     <row r="3948">
       <c r="A3948" t="n">
-        <v>1.211656451153001e+18</v>
+        <v>1.211656451153e+18</v>
       </c>
       <c r="B3948" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
     </row>
     <row r="3949">
       <c r="A3949" t="n">
-        <v>1.213185221627991e+18</v>
+        <v>1.21318522162799e+18</v>
       </c>
       <c r="B3949" t="inlineStr">
         <is>
@@ -39925,7 +39925,7 @@
     </row>
     <row r="3950">
       <c r="A3950" t="n">
-        <v>1.214996496114992e+18</v>
+        <v>1.21499649611499e+18</v>
       </c>
       <c r="B3950" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
     </row>
     <row r="3951">
       <c r="A3951" t="n">
-        <v>1.217936262301924e+18</v>
+        <v>1.21793626230192e+18</v>
       </c>
       <c r="B3951" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
     </row>
     <row r="3953">
       <c r="A3953" t="n">
-        <v>1.220053873871903e+18</v>
+        <v>1.2200538738719e+18</v>
       </c>
       <c r="B3953" t="inlineStr">
         <is>
@@ -39965,7 +39965,7 @@
     </row>
     <row r="3954">
       <c r="A3954" t="n">
-        <v>1.220117842275949e+18</v>
+        <v>1.22011784227594e+18</v>
       </c>
       <c r="B3954" t="inlineStr">
         <is>
@@ -39975,7 +39975,7 @@
     </row>
     <row r="3955">
       <c r="A3955" t="n">
-        <v>1.221396652292139e+18</v>
+        <v>1.22139665229213e+18</v>
       </c>
       <c r="B3955" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
     </row>
     <row r="3956">
       <c r="A3956" t="n">
-        <v>1.221786269384823e+18</v>
+        <v>1.22178626938482e+18</v>
       </c>
       <c r="B3956" t="inlineStr">
         <is>
@@ -39995,7 +39995,7 @@
     </row>
     <row r="3957">
       <c r="A3957" t="n">
-        <v>1.221888619473121e+18</v>
+        <v>1.22188861947312e+18</v>
       </c>
       <c r="B3957" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
     </row>
     <row r="3958">
       <c r="A3958" t="n">
-        <v>1.224679927047806e+18</v>
+        <v>1.2246799270478e+18</v>
       </c>
       <c r="B3958" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
     </row>
     <row r="3959">
       <c r="A3959" t="n">
-        <v>1.224818881981712e+18</v>
+        <v>1.22481888198171e+18</v>
       </c>
       <c r="B3959" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
     </row>
     <row r="3960">
       <c r="A3960" t="n">
-        <v>1.227289938311793e+18</v>
+        <v>1.22728993831179e+18</v>
       </c>
       <c r="B3960" t="inlineStr">
         <is>
@@ -40035,7 +40035,7 @@
     </row>
     <row r="3961">
       <c r="A3961" t="n">
-        <v>1.230388359400675e+18</v>
+        <v>1.23038835940067e+18</v>
       </c>
       <c r="B3961" t="inlineStr">
         <is>
@@ -40045,7 +40045,7 @@
     </row>
     <row r="3962">
       <c r="A3962" t="n">
-        <v>1.231035056730865e+18</v>
+        <v>1.23103505673086e+18</v>
       </c>
       <c r="B3962" t="inlineStr">
         <is>
@@ -40055,7 +40055,7 @@
     </row>
     <row r="3963">
       <c r="A3963" t="n">
-        <v>1.231060713655256e+18</v>
+        <v>1.23106071365525e+18</v>
       </c>
       <c r="B3963" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
     </row>
     <row r="3964">
       <c r="A3964" t="n">
-        <v>1.231681439683161e+18</v>
+        <v>1.23168143968316e+18</v>
       </c>
       <c r="B3964" t="inlineStr">
         <is>
@@ -40075,7 +40075,7 @@
     </row>
     <row r="3965">
       <c r="A3965" t="n">
-        <v>1.231685873709701e+18</v>
+        <v>1.2316858737097e+18</v>
       </c>
       <c r="B3965" t="inlineStr">
         <is>
@@ -40085,7 +40085,7 @@
     </row>
     <row r="3966">
       <c r="A3966" t="n">
-        <v>1.231821407880447e+18</v>
+        <v>1.23182140788044e+18</v>
       </c>
       <c r="B3966" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
     </row>
     <row r="3968">
       <c r="A3968" t="n">
-        <v>1.233269386225407e+18</v>
+        <v>1.2332693862254e+18</v>
       </c>
       <c r="B3968" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
     </row>
     <row r="3969">
       <c r="A3969" t="n">
-        <v>1.233270778221664e+18</v>
+        <v>1.23327077822166e+18</v>
       </c>
       <c r="B3969" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
     </row>
     <row r="3970">
       <c r="A3970" t="n">
-        <v>1.23334646142426e+18</v>
+        <v>1.23334646142425e+18</v>
       </c>
       <c r="B3970" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
     </row>
     <row r="3971">
       <c r="A3971" t="n">
-        <v>1.234635770016822e+18</v>
+        <v>1.23463577001682e+18</v>
       </c>
       <c r="B3971" t="inlineStr">
         <is>
@@ -40145,7 +40145,7 @@
     </row>
     <row r="3972">
       <c r="A3972" t="n">
-        <v>1.234692271264532e+18</v>
+        <v>1.23469227126453e+18</v>
       </c>
       <c r="B3972" t="inlineStr">
         <is>
@@ -40155,7 +40155,7 @@
     </row>
     <row r="3973">
       <c r="A3973" t="n">
-        <v>1.236120169685332e+18</v>
+        <v>1.23612016968533e+18</v>
       </c>
       <c r="B3973" t="inlineStr">
         <is>
@@ -40165,7 +40165,7 @@
     </row>
     <row r="3974">
       <c r="A3974" t="n">
-        <v>1.236370869922932e+18</v>
+        <v>1.23637086992293e+18</v>
       </c>
       <c r="B3974" t="inlineStr">
         <is>
@@ -40175,7 +40175,7 @@
     </row>
     <row r="3975">
       <c r="A3975" t="n">
-        <v>1.236380384338708e+18</v>
+        <v>1.2363803843387e+18</v>
       </c>
       <c r="B3975" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
     </row>
     <row r="3976">
       <c r="A3976" t="n">
-        <v>1.236797139773606e+18</v>
+        <v>1.2367971397736e+18</v>
       </c>
       <c r="B3976" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
     </row>
     <row r="3977">
       <c r="A3977" t="n">
-        <v>1.236829654887201e+18</v>
+        <v>1.2368296548872e+18</v>
       </c>
       <c r="B3977" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
     </row>
     <row r="3978">
       <c r="A3978" t="n">
-        <v>1.236853328515813e+18</v>
+        <v>1.23685332851581e+18</v>
       </c>
       <c r="B3978" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
     </row>
     <row r="3980">
       <c r="A3980" t="n">
-        <v>1.236914160508491e+18</v>
+        <v>1.23691416050849e+18</v>
       </c>
       <c r="B3980" t="inlineStr">
         <is>
@@ -40235,7 +40235,7 @@
     </row>
     <row r="3981">
       <c r="A3981" t="n">
-        <v>1.237548938208698e+18</v>
+        <v>1.23754893820869e+18</v>
       </c>
       <c r="B3981" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
     </row>
     <row r="3982">
       <c r="A3982" t="n">
-        <v>1.237586575340545e+18</v>
+        <v>1.23758657534054e+18</v>
       </c>
       <c r="B3982" t="inlineStr">
         <is>
@@ -40255,7 +40255,7 @@
     </row>
     <row r="3983">
       <c r="A3983" t="n">
-        <v>1.238303507715992e+18</v>
+        <v>1.23830350771599e+18</v>
       </c>
       <c r="B3983" t="inlineStr">
         <is>
@@ -40265,7 +40265,7 @@
     </row>
     <row r="3984">
       <c r="A3984" t="n">
-        <v>1.241382295848404e+18</v>
+        <v>1.2413822958484e+18</v>
       </c>
       <c r="B3984" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
     </row>
     <row r="3985">
       <c r="A3985" t="n">
-        <v>1.245209205074159e+18</v>
+        <v>1.24520920507415e+18</v>
       </c>
       <c r="B3985" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
     </row>
     <row r="3986">
       <c r="A3986" t="n">
-        <v>1.245621880177468e+18</v>
+        <v>1.24562188017746e+18</v>
       </c>
       <c r="B3986" t="inlineStr">
         <is>
@@ -40295,7 +40295,7 @@
     </row>
     <row r="3987">
       <c r="A3987" t="n">
-        <v>1.246364090395308e+18</v>
+        <v>1.2463640903953e+18</v>
       </c>
       <c r="B3987" t="inlineStr">
         <is>
@@ -40305,7 +40305,7 @@
     </row>
     <row r="3988">
       <c r="A3988" t="n">
-        <v>1.246986779212869e+18</v>
+        <v>1.24698677921286e+18</v>
       </c>
       <c r="B3988" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
     </row>
     <row r="3989">
       <c r="A3989" t="n">
-        <v>1.247969843552591e+18</v>
+        <v>1.24796984355259e+18</v>
       </c>
       <c r="B3989" t="inlineStr">
         <is>
@@ -40325,7 +40325,7 @@
     </row>
     <row r="3990">
       <c r="A3990" t="n">
-        <v>1.24848321691778e+18</v>
+        <v>1.24848321691777e+18</v>
       </c>
       <c r="B3990" t="inlineStr">
         <is>
@@ -40335,7 +40335,7 @@
     </row>
     <row r="3991">
       <c r="A3991" t="n">
-        <v>1.249038546750305e+18</v>
+        <v>1.2490385467503e+18</v>
       </c>
       <c r="B3991" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
     </row>
     <row r="3992">
       <c r="A3992" t="n">
-        <v>1.249038641172673e+18</v>
+        <v>1.24903864117267e+18</v>
       </c>
       <c r="B3992" t="inlineStr">
         <is>
@@ -40355,7 +40355,7 @@
     </row>
     <row r="3993">
       <c r="A3993" t="n">
-        <v>1.250513549912102e+18</v>
+        <v>1.2505135499121e+18</v>
       </c>
       <c r="B3993" t="inlineStr">
         <is>
@@ -40365,7 +40365,7 @@
     </row>
     <row r="3994">
       <c r="A3994" t="n">
-        <v>1.25069544774362e+18</v>
+        <v>1.25069544774361e+18</v>
       </c>
       <c r="B3994" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
     </row>
     <row r="3995">
       <c r="A3995" t="n">
-        <v>1.250796654880471e+18</v>
+        <v>1.25079665488047e+18</v>
       </c>
       <c r="B3995" t="inlineStr">
         <is>
@@ -40385,7 +40385,7 @@
     </row>
     <row r="3996">
       <c r="A3996" t="n">
-        <v>1.252089385581912e+18</v>
+        <v>1.25208938558191e+18</v>
       </c>
       <c r="B3996" t="inlineStr">
         <is>
@@ -40395,7 +40395,7 @@
     </row>
     <row r="3997">
       <c r="A3997" t="n">
-        <v>1.252089662587597e+18</v>
+        <v>1.25208966258759e+18</v>
       </c>
       <c r="B3997" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
     </row>
     <row r="3998">
       <c r="A3998" t="n">
-        <v>1.252089930930384e+18</v>
+        <v>1.25208993093038e+18</v>
       </c>
       <c r="B3998" t="inlineStr">
         <is>
@@ -40415,7 +40415,7 @@
     </row>
     <row r="3999">
       <c r="A3999" t="n">
-        <v>1.252090254622804e+18</v>
+        <v>1.2520902546228e+18</v>
       </c>
       <c r="B3999" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
     </row>
     <row r="4000">
       <c r="A4000" t="n">
-        <v>1.252090585533909e+18</v>
+        <v>1.2520905855339e+18</v>
       </c>
       <c r="B4000" t="inlineStr">
         <is>
@@ -40435,7 +40435,7 @@
     </row>
     <row r="4001">
       <c r="A4001" t="n">
-        <v>1.252090888108548e+18</v>
+        <v>1.25209088810854e+18</v>
       </c>
       <c r="B4001" t="inlineStr">
         <is>
@@ -40445,7 +40445,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>1.252091238662762e+18</v>
+        <v>1.25209123866276e+18</v>
       </c>
       <c r="B4002" t="inlineStr">
         <is>
@@ -40455,7 +40455,7 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>1.252091604659866e+18</v>
+        <v>1.25209160465986e+18</v>
       </c>
       <c r="B4003" t="inlineStr">
         <is>
@@ -40465,7 +40465,7 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>1.252092006065614e+18</v>
+        <v>1.25209200606561e+18</v>
       </c>
       <c r="B4004" t="inlineStr">
         <is>
@@ -40475,7 +40475,7 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>1.252092440901629e+18</v>
+        <v>1.25209244090162e+18</v>
       </c>
       <c r="B4005" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>1.252775680110699e+18</v>
+        <v>1.25277568011069e+18</v>
       </c>
       <c r="B4006" t="inlineStr">
         <is>
@@ -40495,7 +40495,7 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>1.253613728311817e+18</v>
+        <v>1.25361372831181e+18</v>
       </c>
       <c r="B4007" t="inlineStr">
         <is>
@@ -40505,7 +40505,7 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>1.255128607158698e+18</v>
+        <v>1.25512860715869e+18</v>
       </c>
       <c r="B4008" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>1.256409499306601e+18</v>
+        <v>1.2564094993066e+18</v>
       </c>
       <c r="B4009" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>1.257115062706699e+18</v>
+        <v>1.25711506270669e+18</v>
       </c>
       <c r="B4010" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>1.258642696260173e+18</v>
+        <v>1.25864269626017e+18</v>
       </c>
       <c r="B4011" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>1.260157119273761e+18</v>
+        <v>1.26015711927376e+18</v>
       </c>
       <c r="B4013" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>1.261305465106895e+18</v>
+        <v>1.26130546510689e+18</v>
       </c>
       <c r="B4014" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>1.262218711283248e+18</v>
+        <v>1.26221871128324e+18</v>
       </c>
       <c r="B4015" t="inlineStr">
         <is>
@@ -40585,7 +40585,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>1.262884097540321e+18</v>
+        <v>1.26288409754032e+18</v>
       </c>
       <c r="B4016" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>1.262906950250832e+18</v>
+        <v>1.26290695025083e+18</v>
       </c>
       <c r="B4017" t="inlineStr">
         <is>
@@ -40605,7 +40605,7 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>1.263723041102929e+18</v>
+        <v>1.26372304110292e+18</v>
       </c>
       <c r="B4018" t="inlineStr">
         <is>
@@ -40615,7 +40615,7 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>1.263737560728954e+18</v>
+        <v>1.26373756072895e+18</v>
       </c>
       <c r="B4019" t="inlineStr">
         <is>
@@ -40635,7 +40635,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>1.267298899136843e+18</v>
+        <v>1.26729889913684e+18</v>
       </c>
       <c r="B4021" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>1.268854134406129e+18</v>
+        <v>1.26885413440612e+18</v>
       </c>
       <c r="B4022" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>1.270333155987774e+18</v>
+        <v>1.27033315598777e+18</v>
       </c>
       <c r="B4023" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>1.271637328168339e+18</v>
+        <v>1.27163732816833e+18</v>
       </c>
       <c r="B4024" t="inlineStr">
         <is>
@@ -40675,7 +40675,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>1.273080897166582e+18</v>
+        <v>1.27308089716658e+18</v>
       </c>
       <c r="B4025" t="inlineStr">
         <is>
@@ -40685,7 +40685,7 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>1.273809695742731e+18</v>
+        <v>1.27380969574273e+18</v>
       </c>
       <c r="B4026" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>1.273967048807976e+18</v>
+        <v>1.27396704880797e+18</v>
       </c>
       <c r="B4027" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>1.274439859743219e+18</v>
+        <v>1.27443985974321e+18</v>
       </c>
       <c r="B4028" t="inlineStr">
         <is>
@@ -40715,7 +40715,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>1.274696153096662e+18</v>
+        <v>1.27469615309666e+18</v>
       </c>
       <c r="B4029" t="inlineStr">
         <is>
@@ -40725,7 +40725,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>1.276007107088803e+18</v>
+        <v>1.2760071070888e+18</v>
       </c>
       <c r="B4030" t="inlineStr">
         <is>
@@ -40735,7 +40735,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>1.276122402184633e+18</v>
+        <v>1.27612240218463e+18</v>
       </c>
       <c r="B4031" t="inlineStr">
         <is>
@@ -40745,7 +40745,7 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>1.277275675661016e+18</v>
+        <v>1.27727567566101e+18</v>
       </c>
       <c r="B4032" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>1.277275873944728e+18</v>
+        <v>1.27727587394472e+18</v>
       </c>
       <c r="B4033" t="inlineStr">
         <is>
@@ -40765,7 +40765,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>1.27727605269954e+18</v>
+        <v>1.27727605269953e+18</v>
       </c>
       <c r="B4034" t="inlineStr">
         <is>
@@ -40775,7 +40775,7 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>1.277276254601478e+18</v>
+        <v>1.27727625460147e+18</v>
       </c>
       <c r="B4035" t="inlineStr">
         <is>
@@ -40785,7 +40785,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>1.277276407620744e+18</v>
+        <v>1.27727640762074e+18</v>
       </c>
       <c r="B4036" t="inlineStr">
         <is>
@@ -40795,7 +40795,7 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>1.279495471567752e+18</v>
+        <v>1.27949547156775e+18</v>
       </c>
       <c r="B4037" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>1.281123782366849e+18</v>
+        <v>1.28112378236684e+18</v>
       </c>
       <c r="B4038" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>1.281263409984522e+18</v>
+        <v>1.28126340998452e+18</v>
       </c>
       <c r="B4039" t="inlineStr">
         <is>
@@ -40835,7 +40835,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>1.284133337127674e+18</v>
+        <v>1.28413333712767e+18</v>
       </c>
       <c r="B4041" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>1.286157836342476e+18</v>
+        <v>1.28615783634247e+18</v>
       </c>
       <c r="B4043" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>1.286859517448962e+18</v>
+        <v>1.28685951744896e+18</v>
       </c>
       <c r="B4044" t="inlineStr">
         <is>
@@ -40875,7 +40875,7 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>1.287620546422662e+18</v>
+        <v>1.28762054642266e+18</v>
       </c>
       <c r="B4045" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>1.289226280737729e+18</v>
+        <v>1.28922628073772e+18</v>
       </c>
       <c r="B4047" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>1.290359241402263e+18</v>
+        <v>1.29035924140226e+18</v>
       </c>
       <c r="B4048" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>1.290612557376944e+18</v>
+        <v>1.29061255737694e+18</v>
       </c>
       <c r="B4049" t="inlineStr">
         <is>
@@ -40925,7 +40925,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>1.292648148074121e+18</v>
+        <v>1.29264814807412e+18</v>
       </c>
       <c r="B4050" t="inlineStr">
         <is>
@@ -40935,7 +40935,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>1.292696092942908e+18</v>
+        <v>1.2926960929429e+18</v>
       </c>
       <c r="B4051" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>1.292750571137151e+18</v>
+        <v>1.29275057113715e+18</v>
       </c>
       <c r="B4052" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>1.293234427467886e+18</v>
+        <v>1.29323442746788e+18</v>
       </c>
       <c r="B4053" t="inlineStr">
         <is>
@@ -40965,7 +40965,7 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>1.293234997566871e+18</v>
+        <v>1.29323499756687e+18</v>
       </c>
       <c r="B4054" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>1.293237030643748e+18</v>
+        <v>1.29323703064374e+18</v>
       </c>
       <c r="B4055" t="inlineStr">
         <is>
@@ -40985,7 +40985,7 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>1.2932391275594e+18</v>
+        <v>1.29323912755939e+18</v>
       </c>
       <c r="B4056" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>1.293358135945385e+18</v>
+        <v>1.29335813594538e+18</v>
       </c>
       <c r="B4057" t="inlineStr">
         <is>
@@ -41005,7 +41005,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>1.293394516190305e+18</v>
+        <v>1.2933945161903e+18</v>
       </c>
       <c r="B4058" t="inlineStr">
         <is>
@@ -41015,7 +41015,7 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>1.295650501564139e+18</v>
+        <v>1.29565050156413e+18</v>
       </c>
       <c r="B4059" t="inlineStr">
         <is>
@@ -41025,7 +41025,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>1.296304692612314e+18</v>
+        <v>1.29630469261231e+18</v>
       </c>
       <c r="B4060" t="inlineStr">
         <is>
@@ -41035,7 +41035,7 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>1.296312870081089e+18</v>
+        <v>1.29631287008108e+18</v>
       </c>
       <c r="B4061" t="inlineStr">
         <is>
@@ -41045,7 +41045,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>1.296320388144902e+18</v>
+        <v>1.2963203881449e+18</v>
       </c>
       <c r="B4062" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>1.297697949701766e+18</v>
+        <v>1.29769794970176e+18</v>
       </c>
       <c r="B4063" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>1.298403676384831e+18</v>
+        <v>1.29840367638483e+18</v>
       </c>
       <c r="B4064" t="inlineStr">
         <is>
@@ -41075,7 +41075,7 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>1.300045654303592e+18</v>
+        <v>1.30004565430359e+18</v>
       </c>
       <c r="B4065" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>1.300580813865916e+18</v>
+        <v>1.30058081386591e+18</v>
       </c>
       <c r="B4066" t="inlineStr">
         <is>
@@ -41095,7 +41095,7 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>1.300636050478895e+18</v>
+        <v>1.30063605047889e+18</v>
       </c>
       <c r="B4067" t="inlineStr">
         <is>
@@ -41105,7 +41105,7 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>1.301057574194469e+18</v>
+        <v>1.30105757419446e+18</v>
       </c>
       <c r="B4068" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>1.302147922411632e+18</v>
+        <v>1.30214792241163e+18</v>
       </c>
       <c r="B4069" t="inlineStr">
         <is>
@@ -41125,7 +41125,7 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>1.302762393308223e+18</v>
+        <v>1.30276239330822e+18</v>
       </c>
       <c r="B4070" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>1.30286079305719e+18</v>
+        <v>1.30286079305718e+18</v>
       </c>
       <c r="B4071" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>1.302998179281986e+18</v>
+        <v>1.30299817928198e+18</v>
       </c>
       <c r="B4072" t="inlineStr">
         <is>
@@ -41155,7 +41155,7 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>1.303541470447991e+18</v>
+        <v>1.30354147044799e+18</v>
       </c>
       <c r="B4073" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>1.303554688962517e+18</v>
+        <v>1.30355468896251e+18</v>
       </c>
       <c r="B4074" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>1.30522679841832e+18</v>
+        <v>1.30522679841831e+18</v>
       </c>
       <c r="B4075" t="inlineStr">
         <is>
@@ -41185,7 +41185,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>1.307072602363014e+18</v>
+        <v>1.30707260236301e+18</v>
       </c>
       <c r="B4076" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>1.307346882692722e+18</v>
+        <v>1.30734688269272e+18</v>
       </c>
       <c r="B4077" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>1.307819906767038e+18</v>
+        <v>1.30781990676703e+18</v>
       </c>
       <c r="B4078" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>1.307898554059103e+18</v>
+        <v>1.3078985540591e+18</v>
       </c>
       <c r="B4079" t="inlineStr">
         <is>
@@ -41225,7 +41225,7 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>1.307951847210415e+18</v>
+        <v>1.30795184721041e+18</v>
       </c>
       <c r="B4080" t="inlineStr">
         <is>
@@ -41235,7 +41235,7 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>1.308616706225374e+18</v>
+        <v>1.30861670622537e+18</v>
       </c>
       <c r="B4081" t="inlineStr">
         <is>
@@ -41245,7 +41245,7 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>1.308642482771541e+18</v>
+        <v>1.30864248277154e+18</v>
       </c>
       <c r="B4082" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>1.30885866756363e+18</v>
+        <v>1.30885866756362e+18</v>
       </c>
       <c r="B4083" t="inlineStr">
         <is>
@@ -41265,7 +41265,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>1.309237615972246e+18</v>
+        <v>1.30923761597224e+18</v>
       </c>
       <c r="B4084" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>1.310250268302458e+18</v>
+        <v>1.31025026830245e+18</v>
       </c>
       <c r="B4085" t="inlineStr">
         <is>
@@ -41285,7 +41285,7 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>1.310312136336596e+18</v>
+        <v>1.31031213633659e+18</v>
       </c>
       <c r="B4086" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>1.310857222920584e+18</v>
+        <v>1.31085722292058e+18</v>
       </c>
       <c r="B4087" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>1.310884432159344e+18</v>
+        <v>1.31088443215934e+18</v>
       </c>
       <c r="B4088" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>1.313055248730786e+18</v>
+        <v>1.31305524873078e+18</v>
       </c>
       <c r="B4090" t="inlineStr">
         <is>
@@ -41335,7 +41335,7 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>1.313095087490216e+18</v>
+        <v>1.31309508749021e+18</v>
       </c>
       <c r="B4091" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>1.315013891005587e+18</v>
+        <v>1.31501389100558e+18</v>
       </c>
       <c r="B4092" t="inlineStr">
         <is>
@@ -41355,7 +41355,7 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>1.315923725387237e+18</v>
+        <v>1.31592372538723e+18</v>
       </c>
       <c r="B4093" t="inlineStr">
         <is>
@@ -41365,7 +41365,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>1.316629808924506e+18</v>
+        <v>1.3166298089245e+18</v>
       </c>
       <c r="B4094" t="inlineStr">
         <is>
@@ -41375,7 +41375,7 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>1.317384615354761e+18</v>
+        <v>1.31738461535476e+18</v>
       </c>
       <c r="B4095" t="inlineStr">
         <is>
@@ -41385,7 +41385,7 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>1.317426395687024e+18</v>
+        <v>1.31742639568702e+18</v>
       </c>
       <c r="B4096" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>1.317459523321839e+18</v>
+        <v>1.31745952332183e+18</v>
       </c>
       <c r="B4097" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>1.317507581785628e+18</v>
+        <v>1.31750758178562e+18</v>
       </c>
       <c r="B4098" t="inlineStr">
         <is>
@@ -41415,7 +41415,7 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>1.318207429594773e+18</v>
+        <v>1.31820742959477e+18</v>
       </c>
       <c r="B4099" t="inlineStr">
         <is>
@@ -41425,7 +41425,7 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>1.318225329294888e+18</v>
+        <v>1.31822532929488e+18</v>
       </c>
       <c r="B4100" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>1.318244737299276e+18</v>
+        <v>1.31824473729927e+18</v>
       </c>
       <c r="B4101" t="inlineStr">
         <is>
